--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122094.493483064</v>
+        <v>2123446.452428078</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="V2" t="n">
-        <v>110.096520216718</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>205.8094091930947</v>
       </c>
       <c r="V3" t="n">
-        <v>130.9643946990846</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.833369608582267</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>51.88667316565858</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>104.1383913127193</v>
       </c>
       <c r="T5" t="n">
-        <v>72.36698404190648</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.581564663550196</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>47.10421958342717</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>113.7209670167588</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>27.51222881530899</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>170.8957889283243</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.92583941990294</v>
+        <v>411.925839419903</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>80.28802575396969</v>
+        <v>80.28802575396972</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>132.0690042411435</v>
       </c>
       <c r="T8" t="n">
-        <v>100.3276487938545</v>
+        <v>208.3134781522528</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>34.7654267625857</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5367173946154</v>
@@ -1230,7 +1230,7 @@
         <v>94.7855622608535</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27.18883380109843</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>138.1226578582211</v>
       </c>
       <c r="T9" t="n">
-        <v>192.8820576977209</v>
+        <v>134.5696445121605</v>
       </c>
       <c r="U9" t="n">
         <v>225.8225136751462</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4762191268065</v>
       </c>
       <c r="H10" t="n">
-        <v>148.7595769932948</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.8975035972062</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>109.184263143059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.6184583635412</v>
+        <v>197.6184583635413</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>231.3623117371387</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>34.31080280985929</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>160.3326712822936</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.8297469363117</v>
       </c>
       <c r="H11" t="n">
-        <v>293.6657873503923</v>
+        <v>293.0490992845888</v>
       </c>
       <c r="I11" t="n">
-        <v>38.03092028031776</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>107.0917967713077</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.515333305332</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9878136615306</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.12158190560913</v>
       </c>
       <c r="I12" t="n">
-        <v>17.12282536899842</v>
+        <v>17.12282536899839</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.9845497729989</v>
       </c>
       <c r="H13" t="n">
-        <v>144.3881894658051</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>87.07702110730844</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.0500024430936</v>
+        <v>176.1402998504411</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.66000219013485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,10 +1610,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>410.8297469363117</v>
       </c>
       <c r="H14" t="n">
-        <v>293.6657873503923</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>38.03092028031773</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>107.0917967713077</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.515333305332</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9878136615306</v>
+        <v>110.1391662085272</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.1366370999056</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>95.11166521179112</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>268.3808082989905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0.5046928615038166</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1850,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>319.7787404004539</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>293.6657873503923</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>107.0917967713077</v>
       </c>
       <c r="T17" t="n">
-        <v>203.515333305332</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>107.1226116448286</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>85.53752281314212</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>144.3881894658051</v>
       </c>
       <c r="I19" t="n">
-        <v>95.11166521179112</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.0500024430936</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U19" t="n">
         <v>286.2095877427385</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>127.1771861902797</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>301.767944161289</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2138,16 +2138,16 @@
         <v>250.9878136615306</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>231.2633869861675</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.9845497729989</v>
       </c>
       <c r="H22" t="n">
         <v>144.3881894658051</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>87.07702110730841</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.0500024430936</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2095877427385</v>
+        <v>284.9655813332882</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>138.0170635440415</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>47.4743113452162</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>144.3881894658051</v>
       </c>
       <c r="I25" t="n">
-        <v>95.11166521179112</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.0500024430936</v>
       </c>
       <c r="T25" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>104.0577735265273</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2609,7 +2609,7 @@
         <v>203.515333305332</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9878136615304</v>
+        <v>250.9878136615306</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.9845497729989</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.3881894658051</v>
       </c>
       <c r="I28" t="n">
-        <v>95.11166521179112</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>189.0500024430936</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U28" t="n">
         <v>286.2095877427385</v>
       </c>
       <c r="V28" t="n">
-        <v>228.4693108706544</v>
+        <v>3.462215852172541</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2843,10 +2843,10 @@
         <v>107.0917967713077</v>
       </c>
       <c r="T29" t="n">
-        <v>203.515333305332</v>
+        <v>203.5153333053321</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9878136615304</v>
+        <v>250.9878136615313</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.9845497729989</v>
       </c>
       <c r="H31" t="n">
-        <v>144.3881894658051</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.07702110730841</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>153.6027746807154</v>
+        <v>189.0500024430936</v>
       </c>
       <c r="T31" t="n">
-        <v>219.3726630176801</v>
+        <v>155.3259288706447</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2095877427385</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.8297469363112</v>
+        <v>410.8297469363117</v>
       </c>
       <c r="H32" t="n">
         <v>293.6657873503923</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>107.0917967713075</v>
+        <v>107.0917967713077</v>
       </c>
       <c r="T32" t="n">
         <v>203.515333305332</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.70494937913275</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>87.94588595566579</v>
       </c>
       <c r="I34" t="n">
-        <v>95.11166521179112</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>87.07702110730841</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.0500024430936</v>
       </c>
       <c r="T34" t="n">
         <v>219.3726630176801</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2095877427385</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,16 +3269,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>185.8721639345317</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>335.2093856377379</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>107.0917967713077</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.515333305332</v>
       </c>
       <c r="U35" t="n">
         <v>250.9878136615306</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>17.90918778614785</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.9845497729989</v>
       </c>
       <c r="H37" t="n">
-        <v>144.3881894658051</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>95.11166521179112</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.07702110730841</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2095877427385</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>155.8633873738846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,19 +3506,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>24.24384902489654</v>
       </c>
       <c r="G38" t="n">
-        <v>410.8297469363117</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>293.6657873503923</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>107.0917967713077</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.515333305332</v>
       </c>
       <c r="U38" t="n">
-        <v>190.4155114207426</v>
+        <v>250.9878136615306</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.1507331051252</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>19.08807807106212</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.9845497729989</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.3881894658051</v>
       </c>
       <c r="I40" t="n">
-        <v>95.11166521179112</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>189.0500024430936</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U40" t="n">
         <v>286.2095877427385</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>139.2404890510704</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.8297469363117</v>
       </c>
       <c r="H41" t="n">
-        <v>293.6657873503923</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>107.0917967713077</v>
+        <v>106.9947158717288</v>
       </c>
       <c r="T41" t="n">
         <v>203.515333305332</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>79.98176713615467</v>
       </c>
       <c r="G43" t="n">
         <v>165.9845497729989</v>
       </c>
       <c r="H43" t="n">
-        <v>22.79922060448047</v>
+        <v>144.3881894658051</v>
       </c>
       <c r="I43" t="n">
-        <v>95.11166521179112</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.0500024430936</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2095877427385</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>272.3527812099847</v>
       </c>
       <c r="G44" t="n">
         <v>410.8297469363117</v>
       </c>
       <c r="H44" t="n">
-        <v>293.6657873503923</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.515333305332</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.9878136615306</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>358.5245624623408</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.66397586312044</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>87.07702110730841</v>
       </c>
       <c r="S46" t="n">
-        <v>103.4905888209271</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U46" t="n">
         <v>286.2095877427385</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677.2692571593336</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C2" t="n">
-        <v>677.2692571593336</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D2" t="n">
-        <v>677.2692571593336</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E2" t="n">
-        <v>677.2692571593336</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F2" t="n">
-        <v>670.3237564101302</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429522</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052545</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030608</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991321</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4361,19 +4361,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="V2" t="n">
-        <v>943.6469137265117</v>
+        <v>827.1755808508577</v>
       </c>
       <c r="W2" t="n">
-        <v>943.6469137265117</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="X2" t="n">
-        <v>943.6469137265117</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y2" t="n">
-        <v>677.2692571593336</v>
+        <v>294.4202677165019</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>694.2029851278862</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>864.141532454616</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>981.1991324880196</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166546</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166546</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534681</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="V3" t="n">
-        <v>527.4602244806554</v>
+        <v>483.1859673338549</v>
       </c>
       <c r="W3" t="n">
-        <v>273.2228677524538</v>
+        <v>228.9486106056533</v>
       </c>
       <c r="X3" t="n">
-        <v>273.2228677524538</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9558888922519</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="C4" t="n">
-        <v>30.01970596434501</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>30.01970596434501</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>493.8069210092332</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640391</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640391</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="W4" t="n">
-        <v>829.3864837640391</v>
+        <v>227.4292644420552</v>
       </c>
       <c r="X4" t="n">
-        <v>601.3969328660218</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6043537224916</v>
+        <v>175.0184834666425</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="T5" t="n">
-        <v>827.4467551159955</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="U5" t="n">
-        <v>573.7617370571243</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="V5" t="n">
-        <v>307.3840804899464</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="W5" t="n">
-        <v>307.3840804899464</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>949.6652257507525</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>683.2875691835745</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>455.2717565768139</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="C6" t="n">
-        <v>280.8187272956869</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="D6" t="n">
-        <v>280.8187272956869</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E6" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F6" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4650,13 +4650,13 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>247.7358133554696</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>438.3365024519934</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N6" t="n">
-        <v>648.3904695545984</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
         <v>909.4672107560896</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1053.257979941832</v>
       </c>
       <c r="S6" t="n">
-        <v>906.2192216098642</v>
+        <v>904.6216815456721</v>
       </c>
       <c r="T6" t="n">
-        <v>906.2192216098642</v>
+        <v>904.6216815456721</v>
       </c>
       <c r="U6" t="n">
-        <v>906.2192216098642</v>
+        <v>676.4858355824856</v>
       </c>
       <c r="V6" t="n">
-        <v>671.0671133781216</v>
+        <v>676.4858355824856</v>
       </c>
       <c r="W6" t="n">
-        <v>623.487093596882</v>
+        <v>422.248478854284</v>
       </c>
       <c r="X6" t="n">
-        <v>623.487093596882</v>
+        <v>214.3969786487511</v>
       </c>
       <c r="Y6" t="n">
-        <v>623.487093596882</v>
+        <v>214.3969786487511</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>466.0167908927597</v>
+        <v>758.3373915224934</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>589.4012085945865</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
         <v>21.09711040012049</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512191</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="T7" t="n">
-        <v>493.8069210092334</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="U7" t="n">
-        <v>493.8069210092334</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="V7" t="n">
-        <v>466.0167908927597</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="W7" t="n">
-        <v>466.0167908927597</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="X7" t="n">
-        <v>466.0167908927597</v>
+        <v>939.9858563527331</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.0167908927597</v>
+        <v>939.9858563527331</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>500.4518475638554</v>
+        <v>1077.114260622769</v>
       </c>
       <c r="C8" t="n">
-        <v>500.4518475638554</v>
+        <v>1077.114260622769</v>
       </c>
       <c r="D8" t="n">
-        <v>142.1861489571048</v>
+        <v>718.8485620160184</v>
       </c>
       <c r="E8" t="n">
-        <v>142.1861489571048</v>
+        <v>546.226552997509</v>
       </c>
       <c r="F8" t="n">
-        <v>135.2406482079014</v>
+        <v>539.2810522483055</v>
       </c>
       <c r="G8" t="n">
         <v>123.194345763555</v>
@@ -4799,55 +4799,55 @@
         <v>123.194345763555</v>
       </c>
       <c r="I8" t="n">
-        <v>42.09532985045429</v>
+        <v>42.09532985045426</v>
       </c>
       <c r="J8" t="n">
-        <v>146.6037890321395</v>
+        <v>146.6037890321394</v>
       </c>
       <c r="K8" t="n">
-        <v>353.9733965681785</v>
+        <v>353.9733965681772</v>
       </c>
       <c r="L8" t="n">
-        <v>648.1354934495998</v>
+        <v>648.1354934495987</v>
       </c>
       <c r="M8" t="n">
-        <v>1007.116942642382</v>
+        <v>1007.116942642381</v>
       </c>
       <c r="N8" t="n">
-        <v>1376.520895365487</v>
+        <v>1376.520895365485</v>
       </c>
       <c r="O8" t="n">
-        <v>1712.003311611627</v>
+        <v>1712.003311611625</v>
       </c>
       <c r="P8" t="n">
-        <v>1963.828791358737</v>
+        <v>1963.828791358736</v>
       </c>
       <c r="Q8" t="n">
-        <v>2104.766492522715</v>
+        <v>2104.766492522713</v>
       </c>
       <c r="R8" t="n">
-        <v>2104.766492522715</v>
+        <v>2104.766492522713</v>
       </c>
       <c r="S8" t="n">
-        <v>2104.766492522715</v>
+        <v>1971.363457935699</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.425433134983</v>
+        <v>1760.945803236454</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.425433134983</v>
+        <v>1760.945803236454</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.425433134983</v>
+        <v>1429.882915892883</v>
       </c>
       <c r="W8" t="n">
-        <v>1650.656777864869</v>
+        <v>1077.114260622769</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.191019603789</v>
+        <v>1077.114260622769</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.0516876279771</v>
+        <v>1077.114260622769</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>469.0981448741468</v>
+        <v>931.3670175861176</v>
       </c>
       <c r="C9" t="n">
-        <v>433.9815521846663</v>
+        <v>756.9139883049907</v>
       </c>
       <c r="D9" t="n">
-        <v>433.9815521846663</v>
+        <v>607.9795786437394</v>
       </c>
       <c r="E9" t="n">
-        <v>274.7440971792108</v>
+        <v>448.7421236382838</v>
       </c>
       <c r="F9" t="n">
-        <v>274.7440971792108</v>
+        <v>302.2075656651688</v>
       </c>
       <c r="G9" t="n">
-        <v>137.8383220331346</v>
+        <v>165.3017905190926</v>
       </c>
       <c r="H9" t="n">
-        <v>42.09532985045429</v>
+        <v>69.55879833641227</v>
       </c>
       <c r="I9" t="n">
-        <v>42.09532985045429</v>
+        <v>42.09532985045426</v>
       </c>
       <c r="J9" t="n">
-        <v>158.3806210890231</v>
+        <v>210.352130214458</v>
       </c>
       <c r="K9" t="n">
-        <v>310.7585509323253</v>
+        <v>362.7300600577601</v>
       </c>
       <c r="L9" t="n">
-        <v>561.9720233663094</v>
+        <v>613.943532491744</v>
       </c>
       <c r="M9" t="n">
-        <v>874.4831648950303</v>
+        <v>926.4546740204648</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.67419134984</v>
+        <v>1261.645700475274</v>
       </c>
       <c r="O9" t="n">
-        <v>1494.088700474897</v>
+        <v>1598.107240760147</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.018407374269</v>
+        <v>1807.041892515777</v>
       </c>
       <c r="Q9" t="n">
-        <v>2104.766492522715</v>
+        <v>2104.766492522713</v>
       </c>
       <c r="R9" t="n">
-        <v>2104.766492522715</v>
+        <v>2104.766492522713</v>
       </c>
       <c r="S9" t="n">
-        <v>1965.248656302289</v>
+        <v>1965.248656302287</v>
       </c>
       <c r="T9" t="n">
-        <v>1770.41829499146</v>
+        <v>1829.31972245162</v>
       </c>
       <c r="U9" t="n">
-        <v>1542.314745824646</v>
+        <v>1601.216173284806</v>
       </c>
       <c r="V9" t="n">
-        <v>1307.162637592903</v>
+        <v>1601.216173284806</v>
       </c>
       <c r="W9" t="n">
-        <v>1052.925280864702</v>
+        <v>1346.978816556604</v>
       </c>
       <c r="X9" t="n">
-        <v>845.0737806591687</v>
+        <v>1139.127316351072</v>
       </c>
       <c r="Y9" t="n">
-        <v>637.3134818942149</v>
+        <v>931.3670175861176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.2209716452438</v>
+        <v>824.1089903687847</v>
       </c>
       <c r="C10" t="n">
-        <v>748.2847887173369</v>
+        <v>655.1728074408778</v>
       </c>
       <c r="D10" t="n">
-        <v>598.1681493050012</v>
+        <v>505.0561680285421</v>
       </c>
       <c r="E10" t="n">
-        <v>450.2550557226081</v>
+        <v>357.1430744461489</v>
       </c>
       <c r="F10" t="n">
-        <v>303.3651082246977</v>
+        <v>210.2531269482386</v>
       </c>
       <c r="G10" t="n">
-        <v>303.3651082246977</v>
+        <v>42.09532985045426</v>
       </c>
       <c r="H10" t="n">
-        <v>153.1029092415717</v>
+        <v>42.09532985045426</v>
       </c>
       <c r="I10" t="n">
-        <v>42.09532985045429</v>
+        <v>42.09532985045426</v>
       </c>
       <c r="J10" t="n">
-        <v>55.69235442898595</v>
+        <v>55.69235442898589</v>
       </c>
       <c r="K10" t="n">
-        <v>207.8732793660066</v>
+        <v>207.8732793660065</v>
       </c>
       <c r="L10" t="n">
-        <v>458.1389038296915</v>
+        <v>458.1389038296912</v>
       </c>
       <c r="M10" t="n">
-        <v>732.3980380913354</v>
+        <v>732.3980380913349</v>
       </c>
       <c r="N10" t="n">
-        <v>1005.570519561397</v>
+        <v>1005.570519561396</v>
       </c>
       <c r="O10" t="n">
         <v>1241.873224931862</v>
       </c>
       <c r="P10" t="n">
-        <v>1420.550329701224</v>
+        <v>1420.550329701223</v>
       </c>
       <c r="Q10" t="n">
-        <v>1460.822015325788</v>
+        <v>1460.822015325787</v>
       </c>
       <c r="R10" t="n">
-        <v>1350.53488083785</v>
+        <v>1460.822015325787</v>
       </c>
       <c r="S10" t="n">
-        <v>1150.920276430232</v>
+        <v>1261.20741091817</v>
       </c>
       <c r="T10" t="n">
-        <v>1150.920276430232</v>
+        <v>1261.20741091817</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.920276430232</v>
+        <v>1261.20741091817</v>
       </c>
       <c r="V10" t="n">
-        <v>917.2209716452438</v>
+        <v>1261.20741091817</v>
       </c>
       <c r="W10" t="n">
-        <v>917.2209716452438</v>
+        <v>1226.550034342554</v>
       </c>
       <c r="X10" t="n">
-        <v>917.2209716452438</v>
+        <v>1226.550034342554</v>
       </c>
       <c r="Y10" t="n">
-        <v>917.2209716452438</v>
+        <v>1005.757455199024</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2093.75052957578</v>
+        <v>1934.783735982133</v>
       </c>
       <c r="C11" t="n">
-        <v>1724.788012635368</v>
+        <v>1934.783735982133</v>
       </c>
       <c r="D11" t="n">
-        <v>1366.522314028618</v>
+        <v>1576.518037375382</v>
       </c>
       <c r="E11" t="n">
-        <v>980.7340614303737</v>
+        <v>1190.729784777138</v>
       </c>
       <c r="F11" t="n">
-        <v>818.7818682159357</v>
+        <v>779.7438799875304</v>
       </c>
       <c r="G11" t="n">
-        <v>403.8023258560249</v>
+        <v>364.7643376276196</v>
       </c>
       <c r="H11" t="n">
-        <v>107.1702174212851</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="I11" t="n">
-        <v>68.75514643106519</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="J11" t="n">
         <v>265.3627902476628</v>
@@ -5057,34 +5057,34 @@
         <v>2707.031818396611</v>
       </c>
       <c r="P11" t="n">
-        <v>3114.900572707188</v>
+        <v>3114.900572707189</v>
       </c>
       <c r="Q11" t="n">
         <v>3373.020274486707</v>
       </c>
       <c r="R11" t="n">
-        <v>3437.757321553259</v>
+        <v>3437.75732155326</v>
       </c>
       <c r="S11" t="n">
-        <v>3329.583789461029</v>
+        <v>3437.75732155326</v>
       </c>
       <c r="T11" t="n">
-        <v>3124.01274571827</v>
+        <v>3437.75732155326</v>
       </c>
       <c r="U11" t="n">
-        <v>2870.489701615714</v>
+        <v>3437.75732155326</v>
       </c>
       <c r="V11" t="n">
-        <v>2870.489701615714</v>
+        <v>3437.75732155326</v>
       </c>
       <c r="W11" t="n">
-        <v>2870.489701615714</v>
+        <v>3084.988666283146</v>
       </c>
       <c r="X11" t="n">
-        <v>2870.489701615714</v>
+        <v>2711.522908022066</v>
       </c>
       <c r="Y11" t="n">
-        <v>2480.350369639902</v>
+        <v>2321.383576046254</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.0727295367294</v>
       </c>
       <c r="H12" t="n">
-        <v>86.05092963207369</v>
+        <v>86.05092963207368</v>
       </c>
       <c r="I12" t="n">
-        <v>68.75514643106519</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="J12" t="n">
         <v>167.0354652340386</v>
       </c>
       <c r="K12" t="n">
-        <v>413.1670086521096</v>
+        <v>331.5910168979627</v>
       </c>
       <c r="L12" t="n">
-        <v>708.8677926977548</v>
+        <v>708.8677926977545</v>
       </c>
       <c r="M12" t="n">
         <v>1168.488863232489</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>828.4576658776771</v>
+        <v>798.4314667589051</v>
       </c>
       <c r="C13" t="n">
-        <v>659.5214829497702</v>
+        <v>629.4952838309982</v>
       </c>
       <c r="D13" t="n">
-        <v>509.4048435374344</v>
+        <v>479.3786444186625</v>
       </c>
       <c r="E13" t="n">
-        <v>361.4917499550413</v>
+        <v>479.3786444186625</v>
       </c>
       <c r="F13" t="n">
-        <v>214.6018024571309</v>
+        <v>332.4886969207521</v>
       </c>
       <c r="G13" t="n">
-        <v>214.6018024571309</v>
+        <v>164.8275355338845</v>
       </c>
       <c r="H13" t="n">
-        <v>68.75514643106519</v>
+        <v>164.8275355338845</v>
       </c>
       <c r="I13" t="n">
-        <v>68.75514643106519</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="J13" t="n">
-        <v>116.7655840906546</v>
+        <v>116.7655840906547</v>
       </c>
       <c r="K13" t="n">
-        <v>325.4983181026295</v>
+        <v>325.4983181026296</v>
       </c>
       <c r="L13" t="n">
         <v>648.130788075845</v>
@@ -5221,28 +5221,28 @@
         <v>1970.030719200903</v>
       </c>
       <c r="R13" t="n">
-        <v>1882.074132223823</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="S13" t="n">
-        <v>1691.114533796456</v>
+        <v>1792.111224402477</v>
       </c>
       <c r="T13" t="n">
-        <v>1691.114533796456</v>
+        <v>1570.52267589977</v>
       </c>
       <c r="U13" t="n">
-        <v>1691.114533796456</v>
+        <v>1570.52267589977</v>
       </c>
       <c r="V13" t="n">
-        <v>1436.430045590569</v>
+        <v>1315.838187693883</v>
       </c>
       <c r="W13" t="n">
-        <v>1147.012875553608</v>
+        <v>1026.421017656922</v>
       </c>
       <c r="X13" t="n">
-        <v>919.0233246555911</v>
+        <v>798.4314667589051</v>
       </c>
       <c r="Y13" t="n">
-        <v>828.4576658776771</v>
+        <v>798.4314667589051</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1984.518542544199</v>
+        <v>1660.363880117966</v>
       </c>
       <c r="C14" t="n">
-        <v>1615.556025603787</v>
+        <v>1291.401363177554</v>
       </c>
       <c r="D14" t="n">
-        <v>1615.556025603787</v>
+        <v>933.1356645708036</v>
       </c>
       <c r="E14" t="n">
-        <v>1229.767773005543</v>
+        <v>933.1356645708036</v>
       </c>
       <c r="F14" t="n">
-        <v>818.7818682159357</v>
+        <v>522.1497597811959</v>
       </c>
       <c r="G14" t="n">
-        <v>403.8023258560248</v>
+        <v>107.1702174212851</v>
       </c>
       <c r="H14" t="n">
         <v>107.1702174212851</v>
       </c>
       <c r="I14" t="n">
-        <v>68.75514643106519</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="J14" t="n">
-        <v>265.3627902476622</v>
+        <v>265.3627902476628</v>
       </c>
       <c r="K14" t="n">
-        <v>610.7652013007253</v>
+        <v>610.7652013007259</v>
       </c>
       <c r="L14" t="n">
-        <v>1076.16919664043</v>
+        <v>1076.169196640432</v>
       </c>
       <c r="M14" t="n">
-        <v>1625.690252649512</v>
+        <v>1625.690252649514</v>
       </c>
       <c r="N14" t="n">
-        <v>2188.71694223023</v>
+        <v>2188.716942230231</v>
       </c>
       <c r="O14" t="n">
-        <v>2707.03181839661</v>
+        <v>2707.031818396611</v>
       </c>
       <c r="P14" t="n">
-        <v>3114.900572707188</v>
+        <v>3114.900572707189</v>
       </c>
       <c r="Q14" t="n">
         <v>3373.020274486707</v>
       </c>
       <c r="R14" t="n">
-        <v>3437.757321553259</v>
+        <v>3437.75732155326</v>
       </c>
       <c r="S14" t="n">
-        <v>3329.583789461029</v>
+        <v>3437.75732155326</v>
       </c>
       <c r="T14" t="n">
-        <v>3124.01274571827</v>
+        <v>3232.186277810501</v>
       </c>
       <c r="U14" t="n">
-        <v>2870.489701615714</v>
+        <v>3120.934594771584</v>
       </c>
       <c r="V14" t="n">
-        <v>2870.489701615714</v>
+        <v>2789.871707428013</v>
       </c>
       <c r="W14" t="n">
-        <v>2517.721046345599</v>
+        <v>2437.103052157899</v>
       </c>
       <c r="X14" t="n">
-        <v>2517.721046345599</v>
+        <v>2437.103052157899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2371.118382608321</v>
+        <v>2046.963720182087</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.0727295367294</v>
       </c>
       <c r="H15" t="n">
-        <v>86.05092963207366</v>
+        <v>86.05092963207368</v>
       </c>
       <c r="I15" t="n">
-        <v>68.75514643106519</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="J15" t="n">
         <v>167.0354652340386</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>333.7637184617914</v>
+        <v>535.721062353701</v>
       </c>
       <c r="C16" t="n">
-        <v>164.8275355338845</v>
+        <v>366.7848794257941</v>
       </c>
       <c r="D16" t="n">
-        <v>164.8275355338845</v>
+        <v>216.6682400134583</v>
       </c>
       <c r="E16" t="n">
-        <v>164.8275355338845</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="F16" t="n">
-        <v>164.8275355338845</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="G16" t="n">
-        <v>164.8275355338845</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="H16" t="n">
-        <v>164.8275355338845</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="I16" t="n">
-        <v>68.75514643106519</v>
+        <v>68.7551464310652</v>
       </c>
       <c r="J16" t="n">
         <v>116.7655840906547</v>
@@ -5473,13 +5473,13 @@
         <v>1235.286038888114</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1943133335786</v>
+        <v>945.8688688511538</v>
       </c>
       <c r="X16" t="n">
-        <v>736.2047624355613</v>
+        <v>717.8793179531365</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.4121832920312</v>
+        <v>717.3695271839407</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1181.771614576472</v>
+        <v>1826.610203889902</v>
       </c>
       <c r="C17" t="n">
-        <v>812.80909763606</v>
+        <v>1457.64768694949</v>
       </c>
       <c r="D17" t="n">
-        <v>454.5433990293094</v>
+        <v>1099.38198834274</v>
       </c>
       <c r="E17" t="n">
-        <v>68.75514643106519</v>
+        <v>776.3731596554126</v>
       </c>
       <c r="F17" t="n">
-        <v>68.75514643106519</v>
+        <v>365.3872548658049</v>
       </c>
       <c r="G17" t="n">
-        <v>68.75514643106519</v>
+        <v>365.3872548658049</v>
       </c>
       <c r="H17" t="n">
         <v>68.75514643106519</v>
@@ -5513,22 +5513,22 @@
         <v>68.75514643106519</v>
       </c>
       <c r="J17" t="n">
-        <v>265.3627902476621</v>
+        <v>265.3627902476622</v>
       </c>
       <c r="K17" t="n">
-        <v>610.7652013007257</v>
+        <v>610.7652013007253</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.169196640431</v>
+        <v>1076.16919664043</v>
       </c>
       <c r="M17" t="n">
-        <v>1625.690252649513</v>
+        <v>1625.690252649512</v>
       </c>
       <c r="N17" t="n">
-        <v>2188.716942230231</v>
+        <v>2188.71694223023</v>
       </c>
       <c r="O17" t="n">
-        <v>2707.031818396611</v>
+        <v>2707.03181839661</v>
       </c>
       <c r="P17" t="n">
         <v>3114.900572707188</v>
@@ -5543,22 +5543,22 @@
         <v>3329.583789461029</v>
       </c>
       <c r="T17" t="n">
-        <v>3124.01274571827</v>
+        <v>3329.583789461029</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.80808749117</v>
+        <v>3329.583789461029</v>
       </c>
       <c r="V17" t="n">
-        <v>2684.745200147599</v>
+        <v>3329.583789461029</v>
       </c>
       <c r="W17" t="n">
-        <v>2331.976544877485</v>
+        <v>2976.815134190915</v>
       </c>
       <c r="X17" t="n">
-        <v>1958.510786616405</v>
+        <v>2603.349375929835</v>
       </c>
       <c r="Y17" t="n">
-        <v>1568.371454640593</v>
+        <v>2213.210043954024</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>167.0354652340386</v>
       </c>
       <c r="K18" t="n">
-        <v>413.1670086521098</v>
+        <v>331.5910168979627</v>
       </c>
       <c r="L18" t="n">
-        <v>790.4437844519016</v>
+        <v>708.8677926977545</v>
       </c>
       <c r="M18" t="n">
-        <v>1250.064854986636</v>
+        <v>1168.488863232489</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.259372528993</v>
+        <v>1654.683380774846</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.812575072593</v>
+        <v>2077.236583318446</v>
       </c>
       <c r="P18" t="n">
-        <v>2478.615706818941</v>
+        <v>2397.039715064795</v>
       </c>
       <c r="Q18" t="n">
         <v>2560.900442999998</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>859.5399322222144</v>
+        <v>848.2057336821515</v>
       </c>
       <c r="C19" t="n">
-        <v>773.1383940271213</v>
+        <v>679.2695507542446</v>
       </c>
       <c r="D19" t="n">
-        <v>773.1383940271213</v>
+        <v>529.1529113419089</v>
       </c>
       <c r="E19" t="n">
-        <v>625.2253004447282</v>
+        <v>529.1529113419089</v>
       </c>
       <c r="F19" t="n">
-        <v>478.3353529468178</v>
+        <v>382.2629638439985</v>
       </c>
       <c r="G19" t="n">
-        <v>310.6741915599503</v>
+        <v>214.6018024571309</v>
       </c>
       <c r="H19" t="n">
-        <v>164.8275355338845</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="I19" t="n">
         <v>68.75514643106519</v>
@@ -5698,25 +5698,25 @@
         <v>1970.030719200903</v>
       </c>
       <c r="S19" t="n">
-        <v>1779.071120773535</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="T19" t="n">
-        <v>1779.071120773535</v>
+        <v>1748.442170698195</v>
       </c>
       <c r="U19" t="n">
-        <v>1489.970527094001</v>
+        <v>1459.341577018662</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.970527094001</v>
+        <v>1204.657088812775</v>
       </c>
       <c r="W19" t="n">
-        <v>1489.970527094001</v>
+        <v>1076.195284580169</v>
       </c>
       <c r="X19" t="n">
-        <v>1261.980976195984</v>
+        <v>848.2057336821515</v>
       </c>
       <c r="Y19" t="n">
-        <v>1041.188397052454</v>
+        <v>848.2057336821515</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2342.78424115095</v>
+        <v>1615.556025603787</v>
       </c>
       <c r="C20" t="n">
-        <v>1973.821724210538</v>
+        <v>1615.556025603787</v>
       </c>
       <c r="D20" t="n">
         <v>1615.556025603787</v>
@@ -5762,10 +5762,10 @@
         <v>1625.690252649513</v>
       </c>
       <c r="N20" t="n">
-        <v>2188.71694223023</v>
+        <v>2188.716942230231</v>
       </c>
       <c r="O20" t="n">
-        <v>2707.03181839661</v>
+        <v>2707.031818396611</v>
       </c>
       <c r="P20" t="n">
         <v>3114.900572707188</v>
@@ -5786,16 +5786,16 @@
         <v>2978.663233707944</v>
       </c>
       <c r="V20" t="n">
-        <v>2647.600346364373</v>
+        <v>2978.663233707944</v>
       </c>
       <c r="W20" t="n">
-        <v>2647.600346364373</v>
+        <v>2625.894578437829</v>
       </c>
       <c r="X20" t="n">
-        <v>2647.600346364373</v>
+        <v>2392.295197643721</v>
       </c>
       <c r="Y20" t="n">
-        <v>2647.600346364373</v>
+        <v>2002.155865667909</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>605.4772326402538</v>
+        <v>794.1614833726351</v>
       </c>
       <c r="C22" t="n">
-        <v>605.4772326402538</v>
+        <v>625.2253004447282</v>
       </c>
       <c r="D22" t="n">
-        <v>605.4772326402538</v>
+        <v>625.2253004447282</v>
       </c>
       <c r="E22" t="n">
-        <v>457.5641390578606</v>
+        <v>625.2253004447282</v>
       </c>
       <c r="F22" t="n">
-        <v>310.6741915599503</v>
+        <v>478.3353529468178</v>
       </c>
       <c r="G22" t="n">
         <v>310.6741915599503</v>
@@ -5932,28 +5932,28 @@
         <v>1970.030719200903</v>
       </c>
       <c r="R22" t="n">
-        <v>1882.074132223823</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="S22" t="n">
-        <v>1691.114533796456</v>
+        <v>1779.071120773535</v>
       </c>
       <c r="T22" t="n">
-        <v>1691.114533796456</v>
+        <v>1557.482572270828</v>
       </c>
       <c r="U22" t="n">
-        <v>1402.013940116922</v>
+        <v>1269.638550722052</v>
       </c>
       <c r="V22" t="n">
-        <v>1147.329451911035</v>
+        <v>1014.954062516165</v>
       </c>
       <c r="W22" t="n">
-        <v>1007.918276614024</v>
+        <v>1014.954062516165</v>
       </c>
       <c r="X22" t="n">
-        <v>1007.918276614024</v>
+        <v>1014.954062516165</v>
       </c>
       <c r="Y22" t="n">
-        <v>787.1256974704935</v>
+        <v>794.1614833726351</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1256.427589586154</v>
       </c>
       <c r="F23" t="n">
-        <v>845.4416847965463</v>
+        <v>845.4416847965465</v>
       </c>
       <c r="G23" t="n">
         <v>430.4621424366357</v>
@@ -5987,25 +5987,25 @@
         <v>95.41496301167611</v>
       </c>
       <c r="J23" t="n">
-        <v>459.4282558486261</v>
+        <v>292.022606828273</v>
       </c>
       <c r="K23" t="n">
-        <v>878.0281520486487</v>
+        <v>637.4250178813361</v>
       </c>
       <c r="L23" t="n">
-        <v>1756.9167497933</v>
+        <v>1102.829013221042</v>
       </c>
       <c r="M23" t="n">
-        <v>2306.437805802382</v>
+        <v>2097.368467388028</v>
       </c>
       <c r="N23" t="n">
-        <v>2869.4644953831</v>
+        <v>3079.656336136406</v>
       </c>
       <c r="O23" t="n">
-        <v>3764.771550999597</v>
+        <v>3974.963391752903</v>
       </c>
       <c r="P23" t="n">
-        <v>4172.640305310175</v>
+        <v>4382.832146063481</v>
       </c>
       <c r="Q23" t="n">
         <v>4640.951847842999</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3148.509795162808</v>
+        <v>968.2053881528533</v>
       </c>
       <c r="C24" t="n">
-        <v>2974.056765881681</v>
+        <v>793.7523588717263</v>
       </c>
       <c r="D24" t="n">
-        <v>2825.12235622043</v>
+        <v>644.817949210475</v>
       </c>
       <c r="E24" t="n">
-        <v>2665.884901214974</v>
+        <v>485.5804942050195</v>
       </c>
       <c r="F24" t="n">
-        <v>2519.350343241859</v>
+        <v>339.0459362319044</v>
       </c>
       <c r="G24" t="n">
-        <v>2383.036953127295</v>
+        <v>202.7325461173403</v>
       </c>
       <c r="H24" t="n">
-        <v>2293.015153222639</v>
+        <v>112.7107462126846</v>
       </c>
       <c r="I24" t="n">
-        <v>2275.71937002163</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.999688824604</v>
+        <v>193.6952818146495</v>
       </c>
       <c r="K24" t="n">
-        <v>2538.555240488528</v>
+        <v>439.8268252327207</v>
       </c>
       <c r="L24" t="n">
-        <v>2915.83201628832</v>
+        <v>817.1036010325124</v>
       </c>
       <c r="M24" t="n">
-        <v>3375.453086823054</v>
+        <v>1276.724671567247</v>
       </c>
       <c r="N24" t="n">
-        <v>3861.647604365411</v>
+        <v>1762.919189109604</v>
       </c>
       <c r="O24" t="n">
-        <v>4284.200806909012</v>
+        <v>2185.472391653204</v>
       </c>
       <c r="P24" t="n">
-        <v>4604.00393865536</v>
+        <v>2505.275523399552</v>
       </c>
       <c r="Q24" t="n">
-        <v>4767.864666590564</v>
+        <v>2590.443743573851</v>
       </c>
       <c r="R24" t="n">
-        <v>4770.748150583805</v>
+        <v>2590.443743573851</v>
       </c>
       <c r="S24" t="n">
-        <v>4642.233606505721</v>
+        <v>2461.929199495766</v>
       </c>
       <c r="T24" t="n">
-        <v>4449.790972580679</v>
+        <v>2269.486565570725</v>
       </c>
       <c r="U24" t="n">
-        <v>4221.726396113307</v>
+        <v>2041.421989103352</v>
       </c>
       <c r="V24" t="n">
-        <v>3986.574287881564</v>
+        <v>1806.26988087161</v>
       </c>
       <c r="W24" t="n">
-        <v>3732.336931153362</v>
+        <v>1552.032524143408</v>
       </c>
       <c r="X24" t="n">
-        <v>3524.48543094783</v>
+        <v>1344.181023937875</v>
       </c>
       <c r="Y24" t="n">
-        <v>3316.725132182876</v>
+        <v>1136.420725172921</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9379393655818</v>
+        <v>920.6158542764725</v>
       </c>
       <c r="C25" t="n">
-        <v>802.0017564376749</v>
+        <v>751.6796713485656</v>
       </c>
       <c r="D25" t="n">
-        <v>651.8851170253391</v>
+        <v>703.7258215049129</v>
       </c>
       <c r="E25" t="n">
-        <v>651.8851170253391</v>
+        <v>555.8127279225198</v>
       </c>
       <c r="F25" t="n">
-        <v>504.9951695274287</v>
+        <v>408.9227804246094</v>
       </c>
       <c r="G25" t="n">
-        <v>337.3340081405612</v>
+        <v>241.2616190377419</v>
       </c>
       <c r="H25" t="n">
-        <v>191.4873521144954</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="I25" t="n">
         <v>95.41496301167611</v>
@@ -6172,25 +6172,25 @@
         <v>1996.690535781514</v>
       </c>
       <c r="S25" t="n">
-        <v>1996.690535781514</v>
+        <v>1805.730937354147</v>
       </c>
       <c r="T25" t="n">
-        <v>1775.101987278807</v>
+        <v>1805.730937354147</v>
       </c>
       <c r="U25" t="n">
-        <v>1775.101987278807</v>
+        <v>1805.730937354147</v>
       </c>
       <c r="V25" t="n">
-        <v>1669.993125130799</v>
+        <v>1551.04644914826</v>
       </c>
       <c r="W25" t="n">
-        <v>1380.575955093839</v>
+        <v>1551.04644914826</v>
       </c>
       <c r="X25" t="n">
-        <v>1152.586404195821</v>
+        <v>1323.056898250242</v>
       </c>
       <c r="Y25" t="n">
-        <v>1152.586404195821</v>
+        <v>1102.264319106712</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2369.444057731561</v>
+        <v>2369.44405773156</v>
       </c>
       <c r="C26" t="n">
         <v>2000.481540791149</v>
@@ -6212,10 +6212,10 @@
         <v>1256.427589586154</v>
       </c>
       <c r="F26" t="n">
-        <v>845.4416847965465</v>
+        <v>845.4416847965472</v>
       </c>
       <c r="G26" t="n">
-        <v>430.4621424366358</v>
+        <v>430.4621424366357</v>
       </c>
       <c r="H26" t="n">
         <v>133.830034001896</v>
@@ -6227,25 +6227,25 @@
         <v>459.4282558486261</v>
       </c>
       <c r="K26" t="n">
-        <v>804.8306669016893</v>
+        <v>1125.734625347142</v>
       </c>
       <c r="L26" t="n">
-        <v>1683.719264646341</v>
+        <v>1591.138620686848</v>
       </c>
       <c r="M26" t="n">
-        <v>2678.258718813327</v>
+        <v>2306.437805802382</v>
       </c>
       <c r="N26" t="n">
-        <v>3311.515930507471</v>
+        <v>2869.4644953831</v>
       </c>
       <c r="O26" t="n">
-        <v>3829.83080667385</v>
+        <v>3764.771550999597</v>
       </c>
       <c r="P26" t="n">
-        <v>4237.699560984428</v>
+        <v>4172.640305310175</v>
       </c>
       <c r="Q26" t="n">
-        <v>4706.011103517252</v>
+        <v>4640.951847842999</v>
       </c>
       <c r="R26" t="n">
         <v>4770.748150583805</v>
@@ -6260,16 +6260,16 @@
         <v>4203.480530646259</v>
       </c>
       <c r="V26" t="n">
-        <v>3872.417643302689</v>
+        <v>3872.417643302688</v>
       </c>
       <c r="W26" t="n">
-        <v>3519.648988032574</v>
+        <v>3519.648988032573</v>
       </c>
       <c r="X26" t="n">
-        <v>3146.183229771495</v>
+        <v>3146.183229771494</v>
       </c>
       <c r="Y26" t="n">
-        <v>2756.043897795683</v>
+        <v>2756.043897795682</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>193.6952818146495</v>
       </c>
       <c r="K27" t="n">
-        <v>439.8268252327207</v>
+        <v>361.1343174718155</v>
       </c>
       <c r="L27" t="n">
-        <v>817.1036010325124</v>
+        <v>738.4110932716072</v>
       </c>
       <c r="M27" t="n">
         <v>1198.032163806342</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.0384609992733</v>
+        <v>686.1812995303811</v>
       </c>
       <c r="C28" t="n">
-        <v>506.0384609992733</v>
+        <v>686.1812995303811</v>
       </c>
       <c r="D28" t="n">
-        <v>506.0384609992733</v>
+        <v>536.0646601180454</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0384609992733</v>
+        <v>388.1515665356523</v>
       </c>
       <c r="F28" t="n">
-        <v>359.148513501363</v>
+        <v>241.2616190377419</v>
       </c>
       <c r="G28" t="n">
-        <v>191.4873521144954</v>
+        <v>241.2616190377419</v>
       </c>
       <c r="H28" t="n">
-        <v>191.4873521144954</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="I28" t="n">
         <v>95.41496301167611</v>
@@ -6412,22 +6412,22 @@
         <v>1717.774350377067</v>
       </c>
       <c r="T28" t="n">
-        <v>1717.774350377067</v>
+        <v>1496.18580187436</v>
       </c>
       <c r="U28" t="n">
-        <v>1428.673756697533</v>
+        <v>1207.085208194826</v>
       </c>
       <c r="V28" t="n">
-        <v>1197.896675010004</v>
+        <v>1203.588020465359</v>
       </c>
       <c r="W28" t="n">
-        <v>908.4795049730432</v>
+        <v>914.1708504283985</v>
       </c>
       <c r="X28" t="n">
-        <v>908.4795049730432</v>
+        <v>686.1812995303811</v>
       </c>
       <c r="Y28" t="n">
-        <v>687.686925829513</v>
+        <v>686.1812995303811</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2369.44405773156</v>
       </c>
       <c r="C29" t="n">
-        <v>2000.481540791148</v>
+        <v>2000.481540791149</v>
       </c>
       <c r="D29" t="n">
         <v>1642.215842184398</v>
@@ -6449,7 +6449,7 @@
         <v>1256.427589586154</v>
       </c>
       <c r="F29" t="n">
-        <v>845.4416847965465</v>
+        <v>845.4416847965463</v>
       </c>
       <c r="G29" t="n">
         <v>430.4621424366357</v>
@@ -6458,37 +6458,37 @@
         <v>133.830034001896</v>
       </c>
       <c r="I29" t="n">
-        <v>95.41496301167608</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="J29" t="n">
         <v>292.022606828273</v>
       </c>
       <c r="K29" t="n">
-        <v>720.3057933083423</v>
+        <v>643.2015946440506</v>
       </c>
       <c r="L29" t="n">
-        <v>1599.194391052994</v>
+        <v>1522.090192388702</v>
       </c>
       <c r="M29" t="n">
-        <v>2148.715447062076</v>
+        <v>2516.629646555688</v>
       </c>
       <c r="N29" t="n">
-        <v>3144.715591810658</v>
+        <v>3079.656336136406</v>
       </c>
       <c r="O29" t="n">
-        <v>4040.022647427155</v>
+        <v>3974.963391752903</v>
       </c>
       <c r="P29" t="n">
-        <v>4447.891401737733</v>
+        <v>4382.832146063481</v>
       </c>
       <c r="Q29" t="n">
-        <v>4706.011103517251</v>
+        <v>4640.951847842999</v>
       </c>
       <c r="R29" t="n">
-        <v>4770.748150583804</v>
+        <v>4770.748150583805</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.574618491574</v>
+        <v>4662.574618491575</v>
       </c>
       <c r="T29" t="n">
         <v>4457.003574748815</v>
@@ -6531,28 +6531,28 @@
         <v>339.0459362319044</v>
       </c>
       <c r="G30" t="n">
-        <v>202.7325461173402</v>
+        <v>202.7325461173403</v>
       </c>
       <c r="H30" t="n">
         <v>112.7107462126846</v>
       </c>
       <c r="I30" t="n">
-        <v>95.41496301167608</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="J30" t="n">
         <v>193.6952818146495</v>
       </c>
       <c r="K30" t="n">
-        <v>358.2508334785736</v>
+        <v>439.8268252327207</v>
       </c>
       <c r="L30" t="n">
-        <v>735.5276092783653</v>
+        <v>817.1036010325124</v>
       </c>
       <c r="M30" t="n">
-        <v>1195.1486798131</v>
+        <v>1276.724671567247</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.343197355457</v>
+        <v>1762.919189109604</v>
       </c>
       <c r="O30" t="n">
         <v>2103.896399899057</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8655502627623</v>
+        <v>413.1927638108793</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9293673348554</v>
+        <v>413.1927638108793</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8127279225197</v>
+        <v>263.0761243985436</v>
       </c>
       <c r="E31" t="n">
-        <v>555.8127279225197</v>
+        <v>263.0761243985436</v>
       </c>
       <c r="F31" t="n">
-        <v>408.9227804246094</v>
+        <v>263.0761243985436</v>
       </c>
       <c r="G31" t="n">
-        <v>241.2616190377418</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="H31" t="n">
-        <v>95.41496301167608</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="I31" t="n">
-        <v>95.41496301167608</v>
+        <v>95.41496301167611</v>
       </c>
       <c r="J31" t="n">
         <v>143.4254006712656</v>
@@ -6625,7 +6625,7 @@
         <v>352.1581346832405</v>
       </c>
       <c r="L31" t="n">
-        <v>674.7906046564559</v>
+        <v>674.790604656456</v>
       </c>
       <c r="M31" t="n">
         <v>1025.350430927445</v>
@@ -6643,28 +6643,28 @@
         <v>1996.690535781514</v>
       </c>
       <c r="R31" t="n">
-        <v>1908.733948804435</v>
+        <v>1996.690535781514</v>
       </c>
       <c r="S31" t="n">
-        <v>1753.579630945126</v>
+        <v>1805.730937354147</v>
       </c>
       <c r="T31" t="n">
-        <v>1531.991082442419</v>
+        <v>1648.836059707031</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.991082442419</v>
+        <v>1359.735466027497</v>
       </c>
       <c r="V31" t="n">
-        <v>1277.306594236532</v>
+        <v>1105.05097782161</v>
       </c>
       <c r="W31" t="n">
-        <v>1277.306594236532</v>
+        <v>815.6338077846492</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.306594236532</v>
+        <v>815.6338077846492</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.514015093002</v>
+        <v>594.8412286411191</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2369.44405773156</v>
+        <v>2369.444057731561</v>
       </c>
       <c r="C32" t="n">
-        <v>2000.481540791148</v>
+        <v>2000.481540791149</v>
       </c>
       <c r="D32" t="n">
-        <v>1642.215842184398</v>
+        <v>1642.215842184399</v>
       </c>
       <c r="E32" t="n">
         <v>1256.427589586154</v>
       </c>
       <c r="F32" t="n">
-        <v>845.441684796546</v>
+        <v>845.4416847965467</v>
       </c>
       <c r="G32" t="n">
-        <v>430.4621424366357</v>
+        <v>430.4621424366358</v>
       </c>
       <c r="H32" t="n">
-        <v>133.830034001896</v>
+        <v>133.8300340018961</v>
       </c>
       <c r="I32" t="n">
-        <v>95.41496301167611</v>
+        <v>95.41496301167612</v>
       </c>
       <c r="J32" t="n">
-        <v>292.022606828273</v>
+        <v>459.4282558486261</v>
       </c>
       <c r="K32" t="n">
-        <v>958.3289763267892</v>
+        <v>804.8306669016893</v>
       </c>
       <c r="L32" t="n">
-        <v>1423.732971666495</v>
+        <v>1683.719264646341</v>
       </c>
       <c r="M32" t="n">
-        <v>2083.656191387824</v>
+        <v>2233.240320655423</v>
       </c>
       <c r="N32" t="n">
-        <v>3079.656336136406</v>
+        <v>2796.26701023614</v>
       </c>
       <c r="O32" t="n">
-        <v>3974.963391752903</v>
+        <v>3691.574065852638</v>
       </c>
       <c r="P32" t="n">
-        <v>4382.832146063481</v>
+        <v>4382.832146063482</v>
       </c>
       <c r="Q32" t="n">
-        <v>4640.951847842999</v>
+        <v>4640.951847843</v>
       </c>
       <c r="R32" t="n">
-        <v>4770.748150583805</v>
+        <v>4770.748150583806</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.574618491575</v>
+        <v>4662.574618491576</v>
       </c>
       <c r="T32" t="n">
-        <v>4457.003574748815</v>
+        <v>4457.003574748816</v>
       </c>
       <c r="U32" t="n">
         <v>4203.480530646259</v>
       </c>
       <c r="V32" t="n">
-        <v>3872.417643302688</v>
+        <v>3872.417643302689</v>
       </c>
       <c r="W32" t="n">
-        <v>3519.648988032573</v>
+        <v>3519.648988032574</v>
       </c>
       <c r="X32" t="n">
-        <v>3146.183229771494</v>
+        <v>3146.183229771495</v>
       </c>
       <c r="Y32" t="n">
-        <v>2756.043897795682</v>
+        <v>2756.043897795683</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>968.2053881528533</v>
+        <v>3148.509795162809</v>
       </c>
       <c r="C33" t="n">
-        <v>793.7523588717263</v>
+        <v>2974.056765881682</v>
       </c>
       <c r="D33" t="n">
-        <v>644.817949210475</v>
+        <v>2825.12235622043</v>
       </c>
       <c r="E33" t="n">
-        <v>485.5804942050195</v>
+        <v>2665.884901214975</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0459362319044</v>
+        <v>2519.35034324186</v>
       </c>
       <c r="G33" t="n">
-        <v>202.7325461173403</v>
+        <v>2383.036953127295</v>
       </c>
       <c r="H33" t="n">
-        <v>112.7107462126846</v>
+        <v>2293.01515322264</v>
       </c>
       <c r="I33" t="n">
-        <v>95.41496301167611</v>
+        <v>2275.719370021631</v>
       </c>
       <c r="J33" t="n">
-        <v>193.6952818146495</v>
+        <v>2373.999688824605</v>
       </c>
       <c r="K33" t="n">
-        <v>358.2508334785736</v>
+        <v>2620.131232242676</v>
       </c>
       <c r="L33" t="n">
-        <v>735.5276092783653</v>
+        <v>2997.408008042467</v>
       </c>
       <c r="M33" t="n">
-        <v>1195.1486798131</v>
+        <v>3457.029078577202</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.343197355457</v>
+        <v>3943.223596119558</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.896399899057</v>
+        <v>4365.776798663159</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.699531645405</v>
+        <v>4685.579930409507</v>
       </c>
       <c r="Q33" t="n">
-        <v>2587.560259580609</v>
+        <v>4767.864666590564</v>
       </c>
       <c r="R33" t="n">
-        <v>2590.443743573851</v>
+        <v>4770.748150583806</v>
       </c>
       <c r="S33" t="n">
-        <v>2461.929199495766</v>
+        <v>4642.233606505722</v>
       </c>
       <c r="T33" t="n">
-        <v>2269.486565570725</v>
+        <v>4449.79097258068</v>
       </c>
       <c r="U33" t="n">
-        <v>2041.421989103352</v>
+        <v>4221.726396113308</v>
       </c>
       <c r="V33" t="n">
-        <v>1806.26988087161</v>
+        <v>3986.574287881565</v>
       </c>
       <c r="W33" t="n">
-        <v>1552.032524143408</v>
+        <v>3732.336931153363</v>
       </c>
       <c r="X33" t="n">
-        <v>1344.181023937875</v>
+        <v>3524.485430947831</v>
       </c>
       <c r="Y33" t="n">
-        <v>1136.420725172921</v>
+        <v>3316.725132182877</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>223.5125535075588</v>
+        <v>503.302013589965</v>
       </c>
       <c r="C34" t="n">
-        <v>223.5125535075588</v>
+        <v>334.3658306620581</v>
       </c>
       <c r="D34" t="n">
-        <v>223.5125535075588</v>
+        <v>184.2491912497224</v>
       </c>
       <c r="E34" t="n">
-        <v>223.5125535075588</v>
+        <v>184.2491912497224</v>
       </c>
       <c r="F34" t="n">
-        <v>191.4873521144954</v>
+        <v>184.2491912497224</v>
       </c>
       <c r="G34" t="n">
-        <v>191.4873521144954</v>
+        <v>184.2491912497224</v>
       </c>
       <c r="H34" t="n">
-        <v>191.4873521144954</v>
+        <v>95.41496301167612</v>
       </c>
       <c r="I34" t="n">
-        <v>95.41496301167611</v>
+        <v>95.41496301167612</v>
       </c>
       <c r="J34" t="n">
         <v>143.4254006712656</v>
@@ -6883,25 +6883,25 @@
         <v>1908.733948804435</v>
       </c>
       <c r="S34" t="n">
-        <v>1908.733948804435</v>
+        <v>1717.774350377067</v>
       </c>
       <c r="T34" t="n">
-        <v>1687.145400301727</v>
+        <v>1496.18580187436</v>
       </c>
       <c r="U34" t="n">
-        <v>1398.044806622194</v>
+        <v>1496.18580187436</v>
       </c>
       <c r="V34" t="n">
-        <v>1143.360318416307</v>
+        <v>1241.501313668473</v>
       </c>
       <c r="W34" t="n">
-        <v>853.943148379346</v>
+        <v>952.0841436315125</v>
       </c>
       <c r="X34" t="n">
-        <v>625.9535974813286</v>
+        <v>724.0945927334951</v>
       </c>
       <c r="Y34" t="n">
-        <v>405.1610183377985</v>
+        <v>503.302013589965</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1573.087159787347</v>
+        <v>1036.453228701015</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.124642846935</v>
+        <v>667.4907117606037</v>
       </c>
       <c r="D35" t="n">
-        <v>1204.124642846935</v>
+        <v>479.7410512206727</v>
       </c>
       <c r="E35" t="n">
-        <v>818.3363902486908</v>
+        <v>479.7410512206727</v>
       </c>
       <c r="F35" t="n">
-        <v>407.3504854590832</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="G35" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="I35" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J35" t="n">
-        <v>265.3627902476621</v>
+        <v>265.3627902476615</v>
       </c>
       <c r="K35" t="n">
-        <v>610.7652013007266</v>
+        <v>610.7652013007246</v>
       </c>
       <c r="L35" t="n">
-        <v>1076.169196640432</v>
+        <v>1076.16919664043</v>
       </c>
       <c r="M35" t="n">
-        <v>1625.690252649514</v>
+        <v>1625.690252649512</v>
       </c>
       <c r="N35" t="n">
-        <v>2188.716942230232</v>
+        <v>2188.71694223023</v>
       </c>
       <c r="O35" t="n">
-        <v>2707.031818396611</v>
+        <v>2707.03181839661</v>
       </c>
       <c r="P35" t="n">
-        <v>3114.900572707189</v>
+        <v>3114.900572707188</v>
       </c>
       <c r="Q35" t="n">
         <v>3373.020274486707</v>
       </c>
       <c r="R35" t="n">
-        <v>3437.75732155326</v>
+        <v>3437.757321553259</v>
       </c>
       <c r="S35" t="n">
-        <v>3329.58378946103</v>
+        <v>3329.583789461029</v>
       </c>
       <c r="T35" t="n">
-        <v>3329.58378946103</v>
+        <v>3124.01274571827</v>
       </c>
       <c r="U35" t="n">
-        <v>3076.060745358474</v>
+        <v>2870.489701615714</v>
       </c>
       <c r="V35" t="n">
-        <v>3076.060745358474</v>
+        <v>2539.426814272143</v>
       </c>
       <c r="W35" t="n">
-        <v>2723.29209008836</v>
+        <v>2186.658159002029</v>
       </c>
       <c r="X35" t="n">
-        <v>2349.82633182728</v>
+        <v>1813.192400740949</v>
       </c>
       <c r="Y35" t="n">
-        <v>1959.686999851468</v>
+        <v>1423.053068765137</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1815.518966132262</v>
+        <v>941.5455715722422</v>
       </c>
       <c r="C36" t="n">
-        <v>1641.065936851135</v>
+        <v>767.0925422911153</v>
       </c>
       <c r="D36" t="n">
-        <v>1492.131527189884</v>
+        <v>618.158132629864</v>
       </c>
       <c r="E36" t="n">
-        <v>1332.894072184429</v>
+        <v>458.9206776244085</v>
       </c>
       <c r="F36" t="n">
-        <v>1186.359514211314</v>
+        <v>312.3861196512935</v>
       </c>
       <c r="G36" t="n">
-        <v>1050.04612409675</v>
+        <v>176.0727295367294</v>
       </c>
       <c r="H36" t="n">
-        <v>960.0243241920938</v>
+        <v>86.05092963207366</v>
       </c>
       <c r="I36" t="n">
-        <v>942.7285409910853</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J36" t="n">
-        <v>962.3163520331534</v>
+        <v>167.0354652340386</v>
       </c>
       <c r="K36" t="n">
-        <v>1208.447895451225</v>
+        <v>413.1670086521098</v>
       </c>
       <c r="L36" t="n">
-        <v>1585.724671251016</v>
+        <v>790.4437844519016</v>
       </c>
       <c r="M36" t="n">
-        <v>2045.345741785751</v>
+        <v>1250.064854986636</v>
       </c>
       <c r="N36" t="n">
-        <v>2531.540259328108</v>
+        <v>1736.259372528993</v>
       </c>
       <c r="O36" t="n">
-        <v>2954.093461871708</v>
+        <v>2158.812575072593</v>
       </c>
       <c r="P36" t="n">
-        <v>3273.896593618057</v>
+        <v>2478.615706818941</v>
       </c>
       <c r="Q36" t="n">
-        <v>3437.75732155326</v>
+        <v>2560.900442999998</v>
       </c>
       <c r="R36" t="n">
-        <v>3437.75732155326</v>
+        <v>2563.78392699324</v>
       </c>
       <c r="S36" t="n">
-        <v>3309.242777475175</v>
+        <v>2435.269382915155</v>
       </c>
       <c r="T36" t="n">
-        <v>3116.800143550134</v>
+        <v>2242.826748990114</v>
       </c>
       <c r="U36" t="n">
-        <v>2888.735567082761</v>
+        <v>2014.762172522741</v>
       </c>
       <c r="V36" t="n">
-        <v>2653.583458851019</v>
+        <v>1779.610064290998</v>
       </c>
       <c r="W36" t="n">
-        <v>2399.346102122817</v>
+        <v>1525.372707562797</v>
       </c>
       <c r="X36" t="n">
-        <v>2191.494601917284</v>
+        <v>1317.521207357264</v>
       </c>
       <c r="Y36" t="n">
-        <v>1983.734303152331</v>
+        <v>1109.76090859231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2392.256657332854</v>
+        <v>795.4984660862679</v>
       </c>
       <c r="C37" t="n">
-        <v>2223.320474404947</v>
+        <v>777.4083774133912</v>
       </c>
       <c r="D37" t="n">
-        <v>2073.203834992612</v>
+        <v>627.2917380010555</v>
       </c>
       <c r="E37" t="n">
-        <v>1925.290741410219</v>
+        <v>479.3786444186624</v>
       </c>
       <c r="F37" t="n">
-        <v>1778.400793912308</v>
+        <v>332.488696920752</v>
       </c>
       <c r="G37" t="n">
-        <v>1778.400793912308</v>
+        <v>164.8275355338845</v>
       </c>
       <c r="H37" t="n">
-        <v>1632.554137886242</v>
+        <v>164.8275355338845</v>
       </c>
       <c r="I37" t="n">
-        <v>1536.481748783423</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J37" t="n">
-        <v>1584.492186443013</v>
+        <v>116.7655840906547</v>
       </c>
       <c r="K37" t="n">
-        <v>1793.224920454988</v>
+        <v>325.4983181026296</v>
       </c>
       <c r="L37" t="n">
-        <v>2115.857390428203</v>
+        <v>648.130788075845</v>
       </c>
       <c r="M37" t="n">
-        <v>2466.417216699192</v>
+        <v>998.6906143468343</v>
       </c>
       <c r="N37" t="n">
-        <v>2814.076130263049</v>
+        <v>1346.349527910691</v>
       </c>
       <c r="O37" t="n">
-        <v>3119.179111650524</v>
+        <v>1651.452509298167</v>
       </c>
       <c r="P37" t="n">
-        <v>3356.726738167396</v>
+        <v>1889.000135815039</v>
       </c>
       <c r="Q37" t="n">
-        <v>3437.75732155326</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="R37" t="n">
-        <v>3349.800734576181</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="S37" t="n">
-        <v>3349.800734576181</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="T37" t="n">
-        <v>3128.212186073474</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="U37" t="n">
-        <v>2839.111592393941</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="V37" t="n">
-        <v>2681.673827369815</v>
+        <v>1715.346230995016</v>
       </c>
       <c r="W37" t="n">
-        <v>2392.256657332854</v>
+        <v>1425.929060958055</v>
       </c>
       <c r="X37" t="n">
-        <v>2392.256657332854</v>
+        <v>1197.939510060038</v>
       </c>
       <c r="Y37" t="n">
-        <v>2392.256657332854</v>
+        <v>977.1469309165076</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2007.73706172599</v>
+        <v>1144.626760793245</v>
       </c>
       <c r="C38" t="n">
-        <v>1638.774544785578</v>
+        <v>775.6642438528336</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.508846178828</v>
+        <v>775.6642438528336</v>
       </c>
       <c r="E38" t="n">
-        <v>894.7205935805836</v>
+        <v>389.8759912545893</v>
       </c>
       <c r="F38" t="n">
-        <v>483.734688790976</v>
+        <v>365.3872548658049</v>
       </c>
       <c r="G38" t="n">
-        <v>68.7551464310652</v>
+        <v>365.3872548658049</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="I38" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J38" t="n">
         <v>265.3627902476621</v>
       </c>
       <c r="K38" t="n">
-        <v>610.7652013007253</v>
+        <v>610.7652013007257</v>
       </c>
       <c r="L38" t="n">
         <v>1076.169196640431</v>
@@ -7184,10 +7184,10 @@
         <v>1625.690252649513</v>
       </c>
       <c r="N38" t="n">
-        <v>2188.71694223023</v>
+        <v>2188.716942230231</v>
       </c>
       <c r="O38" t="n">
-        <v>2707.03181839661</v>
+        <v>2707.031818396611</v>
       </c>
       <c r="P38" t="n">
         <v>3114.900572707188</v>
@@ -7196,28 +7196,28 @@
         <v>3373.020274486707</v>
       </c>
       <c r="R38" t="n">
-        <v>3437.75732155326</v>
+        <v>3437.757321553259</v>
       </c>
       <c r="S38" t="n">
-        <v>3329.58378946103</v>
+        <v>3437.757321553259</v>
       </c>
       <c r="T38" t="n">
-        <v>3329.58378946103</v>
+        <v>3232.1862778105</v>
       </c>
       <c r="U38" t="n">
-        <v>3137.244889036038</v>
+        <v>2978.663233707944</v>
       </c>
       <c r="V38" t="n">
-        <v>3137.244889036038</v>
+        <v>2647.600346364373</v>
       </c>
       <c r="W38" t="n">
-        <v>2784.476233765924</v>
+        <v>2294.831691094259</v>
       </c>
       <c r="X38" t="n">
-        <v>2784.476233765924</v>
+        <v>1921.365932833179</v>
       </c>
       <c r="Y38" t="n">
-        <v>2394.336901790112</v>
+        <v>1531.226600857367</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>176.0727295367294</v>
       </c>
       <c r="H39" t="n">
-        <v>86.05092963207368</v>
+        <v>86.05092963207366</v>
       </c>
       <c r="I39" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J39" t="n">
         <v>167.0354652340386</v>
       </c>
       <c r="K39" t="n">
-        <v>331.5910168979627</v>
+        <v>413.1670086521098</v>
       </c>
       <c r="L39" t="n">
-        <v>708.8677926977545</v>
+        <v>790.4437844519016</v>
       </c>
       <c r="M39" t="n">
-        <v>1168.488863232489</v>
+        <v>1250.064854986636</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.683380774846</v>
+        <v>1736.259372528993</v>
       </c>
       <c r="O39" t="n">
-        <v>2077.236583318446</v>
+        <v>2158.812575072593</v>
       </c>
       <c r="P39" t="n">
-        <v>2397.039715064795</v>
+        <v>2478.615706818941</v>
       </c>
       <c r="Q39" t="n">
-        <v>2560.900442999998</v>
+        <v>2563.78392699324</v>
       </c>
       <c r="R39" t="n">
         <v>2563.78392699324</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>480.4017905031452</v>
+        <v>233.8826893975977</v>
       </c>
       <c r="C40" t="n">
-        <v>480.4017905031452</v>
+        <v>214.6018024571309</v>
       </c>
       <c r="D40" t="n">
-        <v>480.4017905031452</v>
+        <v>214.6018024571309</v>
       </c>
       <c r="E40" t="n">
-        <v>332.4886969207521</v>
+        <v>214.6018024571309</v>
       </c>
       <c r="F40" t="n">
-        <v>332.4886969207521</v>
+        <v>214.6018024571309</v>
       </c>
       <c r="G40" t="n">
-        <v>164.8275355338845</v>
+        <v>214.6018024571309</v>
       </c>
       <c r="H40" t="n">
-        <v>164.8275355338845</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="I40" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J40" t="n">
         <v>116.7655840906547</v>
@@ -7360,22 +7360,22 @@
         <v>1691.114533796456</v>
       </c>
       <c r="T40" t="n">
-        <v>1691.114533796456</v>
+        <v>1469.525985293749</v>
       </c>
       <c r="U40" t="n">
-        <v>1402.013940116922</v>
+        <v>1180.425391614215</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.329451911035</v>
+        <v>925.7409034083281</v>
       </c>
       <c r="W40" t="n">
-        <v>857.9122818740746</v>
+        <v>636.3237333713676</v>
       </c>
       <c r="X40" t="n">
-        <v>857.9122818740746</v>
+        <v>636.3237333713676</v>
       </c>
       <c r="Y40" t="n">
-        <v>637.1197027305444</v>
+        <v>415.5311542278374</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1289.976272803572</v>
+        <v>2007.73706172599</v>
       </c>
       <c r="C41" t="n">
-        <v>921.0137558631607</v>
+        <v>1638.774544785578</v>
       </c>
       <c r="D41" t="n">
-        <v>921.0137558631607</v>
+        <v>1280.508846178828</v>
       </c>
       <c r="E41" t="n">
-        <v>921.0137558631607</v>
+        <v>894.7205935805835</v>
       </c>
       <c r="F41" t="n">
-        <v>780.3667972257158</v>
+        <v>483.734688790976</v>
       </c>
       <c r="G41" t="n">
-        <v>365.3872548658049</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="I41" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J41" t="n">
-        <v>265.3627902476615</v>
+        <v>265.3627902476621</v>
       </c>
       <c r="K41" t="n">
-        <v>610.7652013007246</v>
+        <v>610.7652013007253</v>
       </c>
       <c r="L41" t="n">
-        <v>1076.16919664043</v>
+        <v>1076.169196640431</v>
       </c>
       <c r="M41" t="n">
-        <v>1625.690252649512</v>
+        <v>1625.690252649513</v>
       </c>
       <c r="N41" t="n">
         <v>2188.71694223023</v>
       </c>
       <c r="O41" t="n">
-        <v>2707.031818396611</v>
+        <v>2707.03181839661</v>
       </c>
       <c r="P41" t="n">
-        <v>3114.900572707189</v>
+        <v>3114.900572707188</v>
       </c>
       <c r="Q41" t="n">
-        <v>3373.020274486707</v>
+        <v>3373.020274486706</v>
       </c>
       <c r="R41" t="n">
-        <v>3437.75732155326</v>
+        <v>3437.757321553259</v>
       </c>
       <c r="S41" t="n">
-        <v>3329.58378946103</v>
+        <v>3329.681850975755</v>
       </c>
       <c r="T41" t="n">
-        <v>3124.012745718271</v>
+        <v>3124.110807232996</v>
       </c>
       <c r="U41" t="n">
-        <v>3124.012745718271</v>
+        <v>3124.110807232996</v>
       </c>
       <c r="V41" t="n">
-        <v>2792.9498583747</v>
+        <v>3124.110807232996</v>
       </c>
       <c r="W41" t="n">
-        <v>2440.181203104586</v>
+        <v>2771.342151962881</v>
       </c>
       <c r="X41" t="n">
-        <v>2066.715444843506</v>
+        <v>2397.876393701802</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.576112867694</v>
+        <v>2007.73706172599</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>176.0727295367294</v>
       </c>
       <c r="H42" t="n">
-        <v>86.05092963207368</v>
+        <v>86.05092963207366</v>
       </c>
       <c r="I42" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J42" t="n">
         <v>167.0354652340386</v>
@@ -7506,10 +7506,10 @@
         <v>2158.812575072593</v>
       </c>
       <c r="P42" t="n">
-        <v>2399.923199058037</v>
+        <v>2478.615706818941</v>
       </c>
       <c r="Q42" t="n">
-        <v>2563.78392699324</v>
+        <v>2560.900442999998</v>
       </c>
       <c r="R42" t="n">
         <v>2563.78392699324</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2140.094091545512</v>
+        <v>761.082360612621</v>
       </c>
       <c r="C43" t="n">
-        <v>1971.157908617605</v>
+        <v>761.082360612621</v>
       </c>
       <c r="D43" t="n">
-        <v>1971.157908617605</v>
+        <v>610.9657212002852</v>
       </c>
       <c r="E43" t="n">
-        <v>1823.244815035212</v>
+        <v>463.0526276178921</v>
       </c>
       <c r="F43" t="n">
-        <v>1823.244815035212</v>
+        <v>382.2629638439985</v>
       </c>
       <c r="G43" t="n">
-        <v>1655.583653648344</v>
+        <v>214.6018024571309</v>
       </c>
       <c r="H43" t="n">
-        <v>1632.554137886242</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="I43" t="n">
-        <v>1536.481748783423</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J43" t="n">
-        <v>1584.492186443013</v>
+        <v>116.7655840906547</v>
       </c>
       <c r="K43" t="n">
-        <v>1793.224920454988</v>
+        <v>325.4983181026296</v>
       </c>
       <c r="L43" t="n">
-        <v>2115.857390428203</v>
+        <v>648.130788075845</v>
       </c>
       <c r="M43" t="n">
-        <v>2466.417216699192</v>
+        <v>998.6906143468343</v>
       </c>
       <c r="N43" t="n">
-        <v>2814.076130263049</v>
+        <v>1346.349527910691</v>
       </c>
       <c r="O43" t="n">
-        <v>3119.179111650524</v>
+        <v>1651.452509298167</v>
       </c>
       <c r="P43" t="n">
-        <v>3356.726738167396</v>
+        <v>1889.000135815039</v>
       </c>
       <c r="Q43" t="n">
-        <v>3437.75732155326</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="R43" t="n">
-        <v>3437.75732155326</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="S43" t="n">
-        <v>3246.797723125893</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="T43" t="n">
-        <v>3025.209174623186</v>
+        <v>1970.030719200903</v>
       </c>
       <c r="U43" t="n">
-        <v>3025.209174623186</v>
+        <v>1680.930125521369</v>
       </c>
       <c r="V43" t="n">
-        <v>2770.524686417299</v>
+        <v>1680.930125521369</v>
       </c>
       <c r="W43" t="n">
-        <v>2770.524686417299</v>
+        <v>1391.512955484408</v>
       </c>
       <c r="X43" t="n">
-        <v>2542.535135519282</v>
+        <v>1163.523404586391</v>
       </c>
       <c r="Y43" t="n">
-        <v>2321.742556375752</v>
+        <v>942.7308254428607</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1946.103471553979</v>
+        <v>1144.626760793245</v>
       </c>
       <c r="C44" t="n">
-        <v>1577.140954613568</v>
+        <v>1144.626760793245</v>
       </c>
       <c r="D44" t="n">
-        <v>1577.140954613568</v>
+        <v>1144.626760793245</v>
       </c>
       <c r="E44" t="n">
-        <v>1191.352702015323</v>
+        <v>758.8385081950009</v>
       </c>
       <c r="F44" t="n">
-        <v>780.3667972257158</v>
+        <v>483.734688790976</v>
       </c>
       <c r="G44" t="n">
-        <v>365.3872548658049</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="I44" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J44" t="n">
-        <v>265.3627902476624</v>
+        <v>265.3627902476621</v>
       </c>
       <c r="K44" t="n">
-        <v>610.7652013007259</v>
+        <v>610.7652013007253</v>
       </c>
       <c r="L44" t="n">
-        <v>1076.169196640432</v>
+        <v>1076.169196640431</v>
       </c>
       <c r="M44" t="n">
         <v>1625.690252649513</v>
@@ -7670,28 +7670,28 @@
         <v>3373.020274486707</v>
       </c>
       <c r="R44" t="n">
-        <v>3437.75732155326</v>
+        <v>3437.757321553259</v>
       </c>
       <c r="S44" t="n">
-        <v>3437.75732155326</v>
+        <v>3437.757321553259</v>
       </c>
       <c r="T44" t="n">
-        <v>3437.75732155326</v>
+        <v>3232.1862778105</v>
       </c>
       <c r="U44" t="n">
-        <v>3437.75732155326</v>
+        <v>2978.663233707944</v>
       </c>
       <c r="V44" t="n">
-        <v>3437.75732155326</v>
+        <v>2647.600346364373</v>
       </c>
       <c r="W44" t="n">
-        <v>3084.988666283146</v>
+        <v>2294.831691094259</v>
       </c>
       <c r="X44" t="n">
-        <v>2722.842643593913</v>
+        <v>1921.365932833179</v>
       </c>
       <c r="Y44" t="n">
-        <v>2332.703311618101</v>
+        <v>1531.226600857367</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.0727295367294</v>
       </c>
       <c r="H45" t="n">
-        <v>86.05092963207368</v>
+        <v>86.05092963207366</v>
       </c>
       <c r="I45" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J45" t="n">
         <v>167.0354652340386</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>534.6979162692181</v>
+        <v>424.8422878249648</v>
       </c>
       <c r="C46" t="n">
-        <v>365.7617333413112</v>
+        <v>255.9061048970579</v>
       </c>
       <c r="D46" t="n">
-        <v>215.6450939289755</v>
+        <v>105.7894654847222</v>
       </c>
       <c r="E46" t="n">
-        <v>215.6450939289755</v>
+        <v>105.7894654847222</v>
       </c>
       <c r="F46" t="n">
-        <v>68.7551464310652</v>
+        <v>105.7894654847222</v>
       </c>
       <c r="G46" t="n">
-        <v>68.7551464310652</v>
+        <v>105.7894654847222</v>
       </c>
       <c r="H46" t="n">
-        <v>68.7551464310652</v>
+        <v>105.7894654847222</v>
       </c>
       <c r="I46" t="n">
-        <v>68.7551464310652</v>
+        <v>68.75514643106519</v>
       </c>
       <c r="J46" t="n">
         <v>116.7655840906547</v>
@@ -7831,25 +7831,25 @@
         <v>1882.074132223823</v>
       </c>
       <c r="S46" t="n">
-        <v>1777.538183919857</v>
+        <v>1882.074132223823</v>
       </c>
       <c r="T46" t="n">
-        <v>1777.538183919857</v>
+        <v>1660.485583721116</v>
       </c>
       <c r="U46" t="n">
-        <v>1488.437590240323</v>
+        <v>1371.384990041582</v>
       </c>
       <c r="V46" t="n">
-        <v>1233.753102034436</v>
+        <v>1116.700501835695</v>
       </c>
       <c r="W46" t="n">
-        <v>944.3359319974752</v>
+        <v>827.2833317987347</v>
       </c>
       <c r="X46" t="n">
-        <v>716.3463810994579</v>
+        <v>827.2833317987347</v>
       </c>
       <c r="Y46" t="n">
-        <v>716.3463810994579</v>
+        <v>606.4907526552046</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544053</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>45.78351343583211</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>5.262887399594234</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167806</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.461462839507618</v>
+        <v>3.461462839507675</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.59456147633311</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>52.5727587472885</v>
       </c>
       <c r="P9" t="n">
-        <v>315.1465203472144</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>33.49942710329097</v>
+        <v>33.499427103291</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>73.93685368379755</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>423.4961405733942</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,19 +9875,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>167.4526556630833</v>
       </c>
       <c r="N26" t="n">
-        <v>70.93992132669337</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>83.71795497677397</v>
+        <v>5.834926022943932</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>111.5173370830778</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>286.251844343703</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>246.5433744594178</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.616688065803487</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>38.03092028031773</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>107.0917967713077</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.515333305332</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9878136615306</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.9845497729989</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.3881894658051</v>
       </c>
       <c r="I13" t="n">
-        <v>95.11166521179113</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>87.07702110730841</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>12.90970259265251</v>
       </c>
       <c r="T13" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2095877427385</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.92465116196</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>293.6657873503923</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>107.0917967713077</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>140.8486474530035</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.101301556148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>144.3881894658051</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>18.14219003760053</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.079960490591</v>
       </c>
     </row>
     <row r="17">
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>62.15162967180788</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.8297469363117</v>
       </c>
       <c r="H17" t="n">
-        <v>293.6657873503923</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>38.03092028031773</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.515333305332</v>
       </c>
       <c r="U17" t="n">
-        <v>143.8652020167021</v>
+        <v>250.9878136615306</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>81.70929828548572</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>87.07702110730841</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.0500024430936</v>
       </c>
       <c r="T19" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>159.3458121463113</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>80.96589750219158</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>138.4677136923015</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9845497729989</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>87.07702110730841</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.244006409450265</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>148.5059347925495</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>101.1411616729962</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>87.07702110730841</v>
       </c>
       <c r="S25" t="n">
-        <v>189.0500024430936</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U25" t="n">
         <v>286.2095877427385</v>
       </c>
       <c r="V25" t="n">
-        <v>148.0798697973007</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.9845497729989</v>
       </c>
       <c r="H28" t="n">
-        <v>144.3881894658051</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>23.66833245317358</v>
+        <v>248.6754274716555</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.3881894658051</v>
       </c>
       <c r="I31" t="n">
         <v>95.11166521179112</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>87.07702110730841</v>
       </c>
       <c r="S31" t="n">
-        <v>35.44722776237819</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>64.04673414703532</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2095877427385</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>113.7160986437985</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.9845497729989</v>
       </c>
       <c r="H34" t="n">
-        <v>144.3881894658051</v>
+        <v>56.4423035101393</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.0500024430936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2095877427385</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25157,16 +25157,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>168.8108776861513</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>75.62036129857381</v>
+        <v>410.8297469363117</v>
       </c>
       <c r="H35" t="n">
         <v>293.6657873503923</v>
@@ -25205,13 +25205,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.515333305332</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>149.33763331248</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.9845497729989</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.3881894658051</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.07702110730841</v>
       </c>
       <c r="S37" t="n">
         <v>189.0500024430936</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2095877427385</v>
       </c>
       <c r="V37" t="n">
-        <v>96.27425594994344</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,19 +25394,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>382.6321967168149</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.8297469363117</v>
       </c>
       <c r="H38" t="n">
-        <v>293.6657873503923</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>38.03092028031773</v>
@@ -25439,22 +25439,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>107.0917967713077</v>
       </c>
       <c r="T38" t="n">
-        <v>203.515333305332</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>60.57230224078805</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.6812470768121</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>148.1587430275657</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.9845497729989</v>
       </c>
       <c r="H40" t="n">
-        <v>144.3881894658051</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,25 +25625,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>267.635556690641</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>293.6657873503923</v>
       </c>
       <c r="I41" t="n">
         <v>38.03092028031773</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.09708089957882748</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>250.9878136615306</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>65.43928088677657</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.5889688613246</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>95.11166521179112</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25834,19 @@
         <v>87.07702110730841</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.0500024430936</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.3726630176801</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2095877427385</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>134.5232645317267</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>293.6657873503923</v>
       </c>
       <c r="I44" t="n">
         <v>38.03092028031773</v>
@@ -25916,19 +25916,19 @@
         <v>107.0917967713077</v>
       </c>
       <c r="T44" t="n">
-        <v>203.515333305332</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9878136615306</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>11.20653821612819</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.9845497729989</v>
@@ -26041,7 +26041,7 @@
         <v>144.3881894658051</v>
       </c>
       <c r="I46" t="n">
-        <v>95.11166521179112</v>
+        <v>58.44768934867068</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>85.55941362216657</v>
+        <v>189.0500024430936</v>
       </c>
       <c r="T46" t="n">
-        <v>219.3726630176801</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700216.4899742005</v>
+        <v>700216.4899742006</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837296.7438187797</v>
+        <v>837296.7438187798</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837296.7438187796</v>
+        <v>837296.7438187798</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700216.4899742006</v>
+        <v>700216.4899742004</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700216.4899742004</v>
+        <v>700216.4899742006</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
+        <v>519215.4138217799</v>
+      </c>
+      <c r="F2" t="n">
         <v>519215.41382178</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>519215.4138217799</v>
+      </c>
+      <c r="H2" t="n">
         <v>519215.4138217801</v>
-      </c>
-      <c r="G2" t="n">
-        <v>519215.4138217802</v>
-      </c>
-      <c r="H2" t="n">
-        <v>519215.41382178</v>
       </c>
       <c r="I2" t="n">
         <v>596423.4956506086</v>
       </c>
       <c r="J2" t="n">
-        <v>596423.4956506088</v>
+        <v>596423.4956506087</v>
       </c>
       <c r="K2" t="n">
-        <v>596423.4956506086</v>
+        <v>596423.495650609</v>
       </c>
       <c r="L2" t="n">
-        <v>596423.4956506088</v>
+        <v>596423.495650609</v>
       </c>
       <c r="M2" t="n">
+        <v>519215.4138217801</v>
+      </c>
+      <c r="N2" t="n">
+        <v>519215.41382178</v>
+      </c>
+      <c r="O2" t="n">
+        <v>519215.4138217801</v>
+      </c>
+      <c r="P2" t="n">
         <v>519215.4138217799</v>
-      </c>
-      <c r="N2" t="n">
-        <v>519215.4138217799</v>
-      </c>
-      <c r="O2" t="n">
-        <v>519215.41382178</v>
-      </c>
-      <c r="P2" t="n">
-        <v>519215.41382178</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>275038.8236117079</v>
+        <v>275038.8236117075</v>
       </c>
       <c r="E3" t="n">
-        <v>318550.6763492437</v>
+        <v>318550.6763492443</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66430.75448630545</v>
+        <v>66430.75448630516</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247761.2999821561</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="C4" t="n">
-        <v>247761.2999821561</v>
+        <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>168965.4136277914</v>
+        <v>168829.9449810061</v>
       </c>
       <c r="E4" t="n">
-        <v>8641.871091127352</v>
+        <v>8565.017616647938</v>
       </c>
       <c r="F4" t="n">
-        <v>8641.871091127352</v>
+        <v>8565.017616647938</v>
       </c>
       <c r="G4" t="n">
-        <v>8641.871091127352</v>
+        <v>8565.017616647938</v>
       </c>
       <c r="H4" t="n">
-        <v>8641.871091127352</v>
+        <v>8565.017616647938</v>
       </c>
       <c r="I4" t="n">
-        <v>43266.42758883997</v>
+        <v>42858.71379338161</v>
       </c>
       <c r="J4" t="n">
-        <v>43266.42758883999</v>
+        <v>42858.71379338161</v>
       </c>
       <c r="K4" t="n">
-        <v>43266.42758883996</v>
+        <v>42858.71379338162</v>
       </c>
       <c r="L4" t="n">
-        <v>43266.42758883997</v>
+        <v>42858.71379338163</v>
       </c>
       <c r="M4" t="n">
-        <v>8641.871091127388</v>
+        <v>8565.017616647938</v>
       </c>
       <c r="N4" t="n">
-        <v>8641.871091127385</v>
+        <v>8565.017616647938</v>
       </c>
       <c r="O4" t="n">
-        <v>8641.871091127352</v>
+        <v>8565.017616647938</v>
       </c>
       <c r="P4" t="n">
-        <v>8641.871091127352</v>
+        <v>8565.017616647938</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>83932.12483226522</v>
+        <v>83932.1248322652</v>
       </c>
       <c r="E5" t="n">
-        <v>76509.820948924</v>
+        <v>76509.82094892401</v>
       </c>
       <c r="F5" t="n">
-        <v>76509.820948924</v>
+        <v>76509.82094892401</v>
       </c>
       <c r="G5" t="n">
         <v>76509.820948924</v>
@@ -26494,22 +26494,22 @@
         <v>96771.28155018829</v>
       </c>
       <c r="K5" t="n">
-        <v>96771.28155018827</v>
+        <v>96771.28155018829</v>
       </c>
       <c r="L5" t="n">
-        <v>96771.28155018829</v>
+        <v>96771.2815501883</v>
       </c>
       <c r="M5" t="n">
-        <v>76509.82094892401</v>
+        <v>76509.820948924</v>
       </c>
       <c r="N5" t="n">
-        <v>76509.82094892401</v>
+        <v>76509.820948924</v>
       </c>
       <c r="O5" t="n">
-        <v>76509.82094892401</v>
+        <v>76509.820948924</v>
       </c>
       <c r="P5" t="n">
-        <v>76509.82094892401</v>
+        <v>76509.820948924</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375115.7563794033</v>
+        <v>-375003.0234396362</v>
       </c>
       <c r="C6" t="n">
-        <v>304972.22421179</v>
+        <v>305084.9571515571</v>
       </c>
       <c r="D6" t="n">
-        <v>87844.965326448</v>
+        <v>87980.43397323374</v>
       </c>
       <c r="E6" t="n">
-        <v>115513.0454324849</v>
+        <v>115589.8989069638</v>
       </c>
       <c r="F6" t="n">
-        <v>434063.7217817286</v>
+        <v>434140.5752562081</v>
       </c>
       <c r="G6" t="n">
-        <v>434063.7217817289</v>
+        <v>434140.575256208</v>
       </c>
       <c r="H6" t="n">
-        <v>434063.7217817287</v>
+        <v>434140.5752562081</v>
       </c>
       <c r="I6" t="n">
-        <v>367768.2229499224</v>
+        <v>368175.9367453807</v>
       </c>
       <c r="J6" t="n">
-        <v>387386.6320924663</v>
+        <v>387794.3458879247</v>
       </c>
       <c r="K6" t="n">
-        <v>456385.7865115803</v>
+        <v>456793.5003070391</v>
       </c>
       <c r="L6" t="n">
-        <v>389955.0320252752</v>
+        <v>390362.745820734</v>
       </c>
       <c r="M6" t="n">
-        <v>434063.7217817286</v>
+        <v>434140.5752562081</v>
       </c>
       <c r="N6" t="n">
-        <v>434063.7217817286</v>
+        <v>434140.5752562081</v>
       </c>
       <c r="O6" t="n">
-        <v>434063.7217817287</v>
+        <v>434140.5752562081</v>
       </c>
       <c r="P6" t="n">
-        <v>434063.7217817287</v>
+        <v>434140.575256208</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>840.0034011889892</v>
+        <v>840.003401188989</v>
       </c>
       <c r="E3" t="n">
         <v>1112.656406482314</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>526.1916231306786</v>
+        <v>526.1916231306782</v>
       </c>
       <c r="E4" t="n">
-        <v>859.4393303883148</v>
+        <v>859.4393303883151</v>
       </c>
       <c r="F4" t="n">
-        <v>859.4393303883148</v>
+        <v>859.4393303883151</v>
       </c>
       <c r="G4" t="n">
         <v>859.4393303883148</v>
@@ -26820,16 +26820,16 @@
         <v>1192.687037645951</v>
       </c>
       <c r="M4" t="n">
-        <v>859.4393303883151</v>
+        <v>859.4393303883148</v>
       </c>
       <c r="N4" t="n">
-        <v>859.4393303883151</v>
+        <v>859.4393303883148</v>
       </c>
       <c r="O4" t="n">
-        <v>859.4393303883151</v>
+        <v>859.4393303883148</v>
       </c>
       <c r="P4" t="n">
-        <v>859.4393303883151</v>
+        <v>859.4393303883148</v>
       </c>
     </row>
   </sheetData>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225.9483874195109</v>
+        <v>225.9483874195107</v>
       </c>
       <c r="E3" t="n">
-        <v>272.653005293325</v>
+        <v>272.6530052933255</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>262.4777431291725</v>
+        <v>262.4777431291721</v>
       </c>
       <c r="E4" t="n">
-        <v>333.2477072576362</v>
+        <v>333.2477072576368</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>262.4777431291727</v>
+        <v>262.4777431291715</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>262.4777431291725</v>
+        <v>262.4777431291721</v>
       </c>
       <c r="M4" t="n">
-        <v>333.2477072576362</v>
+        <v>333.2477072576368</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.4797526277618</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>25.74502811466735</v>
       </c>
       <c r="V2" t="n">
-        <v>217.6557382534169</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>20.04507831045996</v>
       </c>
       <c r="V3" t="n">
-        <v>101.8361924503407</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>137.6005930379869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>173.8229822233786</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>48.62930188650292</v>
       </c>
       <c r="T5" t="n">
-        <v>139.9227315613168</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>16.57096029172749</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>204.5907635774924</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>15.07219909888209</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>13.78363586690516</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>224.625414508519</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>211.0345811439375</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.8911444979713</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>132.0690042411434</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>107.9858293583983</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0755010602179</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>137.94307222573</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.18883380109842</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,13 +27983,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>58.31241318556039</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4762191268065</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.7595769932948</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.8975035972062</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>109.184263143059</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.4734320748581</v>
+        <v>221.4734320748582</v>
       </c>
       <c r="U10" t="n">
         <v>286.236406071128</v>
       </c>
       <c r="V10" t="n">
-        <v>20.77533158668928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>252.2121955267317</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.376898095232115</v>
+        <v>3.376898095232114</v>
       </c>
       <c r="H8" t="n">
-        <v>34.58365761779591</v>
+        <v>34.58365761779589</v>
       </c>
       <c r="I8" t="n">
         <v>130.1878638164362</v>
       </c>
       <c r="J8" t="n">
-        <v>286.610004710207</v>
+        <v>286.6100047102069</v>
       </c>
       <c r="K8" t="n">
-        <v>429.5541010813824</v>
+        <v>429.5541010813823</v>
       </c>
       <c r="L8" t="n">
-        <v>532.8998461633424</v>
+        <v>532.8998461633423</v>
       </c>
       <c r="M8" t="n">
-        <v>592.9537576644265</v>
+        <v>592.9537576644263</v>
       </c>
       <c r="N8" t="n">
-        <v>602.5483693775049</v>
+        <v>602.5483693775046</v>
       </c>
       <c r="O8" t="n">
-        <v>568.9693389430404</v>
+        <v>568.9693389430403</v>
       </c>
       <c r="P8" t="n">
-        <v>485.6021672169975</v>
+        <v>485.6021672169974</v>
       </c>
       <c r="Q8" t="n">
-        <v>364.6670041814973</v>
+        <v>364.6670041814972</v>
       </c>
       <c r="R8" t="n">
-        <v>212.1240749746245</v>
+        <v>212.1240749746244</v>
       </c>
       <c r="S8" t="n">
-        <v>76.9510653451019</v>
+        <v>76.95106534510187</v>
       </c>
       <c r="T8" t="n">
         <v>14.78237141187859</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2701518476185691</v>
+        <v>0.270151847618569</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,43 +31595,43 @@
         <v>1.806799768595184</v>
       </c>
       <c r="H9" t="n">
-        <v>17.44988197564297</v>
+        <v>17.44988197564296</v>
       </c>
       <c r="I9" t="n">
-        <v>62.20779905031666</v>
+        <v>62.20779905031664</v>
       </c>
       <c r="J9" t="n">
-        <v>170.7029553303021</v>
+        <v>170.702955330302</v>
       </c>
       <c r="K9" t="n">
-        <v>291.7585398261794</v>
+        <v>291.7585398261793</v>
       </c>
       <c r="L9" t="n">
-        <v>392.3053620364237</v>
+        <v>392.3053620364236</v>
       </c>
       <c r="M9" t="n">
-        <v>457.8018536479991</v>
+        <v>457.8018536479989</v>
       </c>
       <c r="N9" t="n">
-        <v>469.9185064821309</v>
+        <v>469.9185064821307</v>
       </c>
       <c r="O9" t="n">
-        <v>429.8836273990481</v>
+        <v>429.883627399048</v>
       </c>
       <c r="P9" t="n">
-        <v>345.0195101977945</v>
+        <v>345.0195101977944</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.6364055490976</v>
+        <v>230.6364055490975</v>
       </c>
       <c r="R9" t="n">
         <v>112.180076860673</v>
       </c>
       <c r="S9" t="n">
-        <v>33.56051324561667</v>
+        <v>33.56051324561666</v>
       </c>
       <c r="T9" t="n">
-        <v>7.282670997100762</v>
+        <v>7.282670997100761</v>
       </c>
       <c r="U9" t="n">
         <v>0.1188684058286306</v>
@@ -31674,46 +31674,46 @@
         <v>1.514760231652275</v>
       </c>
       <c r="H10" t="n">
-        <v>13.46759551414479</v>
+        <v>13.46759551414478</v>
       </c>
       <c r="I10" t="n">
-        <v>45.55297133005208</v>
+        <v>45.55297133005207</v>
       </c>
       <c r="J10" t="n">
-        <v>107.0935483778159</v>
+        <v>107.0935483778158</v>
       </c>
       <c r="K10" t="n">
         <v>175.9875978228734</v>
       </c>
       <c r="L10" t="n">
-        <v>225.203534804012</v>
+        <v>225.2035348040119</v>
       </c>
       <c r="M10" t="n">
-        <v>237.4455515852744</v>
+        <v>237.4455515852743</v>
       </c>
       <c r="N10" t="n">
         <v>231.7996270854797</v>
       </c>
       <c r="O10" t="n">
-        <v>214.104473470269</v>
+        <v>214.1044734702689</v>
       </c>
       <c r="P10" t="n">
         <v>183.2033647445624</v>
       </c>
       <c r="Q10" t="n">
-        <v>126.8405135795374</v>
+        <v>126.8405135795373</v>
       </c>
       <c r="R10" t="n">
-        <v>68.10912823411047</v>
+        <v>68.10912823411046</v>
       </c>
       <c r="S10" t="n">
-        <v>26.39813967343101</v>
+        <v>26.398139673431</v>
       </c>
       <c r="T10" t="n">
-        <v>6.472157353423357</v>
+        <v>6.472157353423355</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08262328536285148</v>
+        <v>0.08262328536285146</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.47299057882337</v>
+        <v>4.472990578823371</v>
       </c>
       <c r="H11" t="n">
-        <v>45.80901476537485</v>
+        <v>45.80901476537486</v>
       </c>
       <c r="I11" t="n">
         <v>172.4449692900882</v>
       </c>
       <c r="J11" t="n">
-        <v>379.6394841394103</v>
+        <v>379.6394841394105</v>
       </c>
       <c r="K11" t="n">
-        <v>568.9811753410038</v>
+        <v>568.9811753410039</v>
       </c>
       <c r="L11" t="n">
-        <v>705.8714607676696</v>
+        <v>705.8714607676698</v>
       </c>
       <c r="M11" t="n">
-        <v>785.4180069738197</v>
+        <v>785.4180069738198</v>
       </c>
       <c r="N11" t="n">
-        <v>798.1268914559016</v>
+        <v>798.1268914559018</v>
       </c>
       <c r="O11" t="n">
-        <v>753.6485913877267</v>
+        <v>753.6485913877269</v>
       </c>
       <c r="P11" t="n">
-        <v>643.2216364730247</v>
+        <v>643.2216364730248</v>
       </c>
       <c r="Q11" t="n">
-        <v>483.0326613689126</v>
+        <v>483.0326613689127</v>
       </c>
       <c r="R11" t="n">
-        <v>280.9764944470138</v>
+        <v>280.9764944470139</v>
       </c>
       <c r="S11" t="n">
         <v>101.9282728149377</v>
       </c>
       <c r="T11" t="n">
-        <v>19.58051625879931</v>
+        <v>19.58051625879932</v>
       </c>
       <c r="U11" t="n">
         <v>0.3578392463058696</v>
@@ -31832,46 +31832,46 @@
         <v>2.393260949792148</v>
       </c>
       <c r="H12" t="n">
-        <v>23.11386233088732</v>
+        <v>23.11386233088733</v>
       </c>
       <c r="I12" t="n">
-        <v>82.39955463100158</v>
+        <v>82.39955463100161</v>
       </c>
       <c r="J12" t="n">
         <v>226.1106759625994</v>
       </c>
       <c r="K12" t="n">
-        <v>386.4591595986732</v>
+        <v>304.0591679278177</v>
       </c>
       <c r="L12" t="n">
-        <v>437.242040432041</v>
+        <v>519.6420321028961</v>
       </c>
       <c r="M12" t="n">
-        <v>606.3977415328611</v>
+        <v>606.3977415328612</v>
       </c>
       <c r="N12" t="n">
-        <v>622.447285358441</v>
+        <v>622.4472853584411</v>
       </c>
       <c r="O12" t="n">
-        <v>569.4176611551519</v>
+        <v>569.417661155152</v>
       </c>
       <c r="P12" t="n">
-        <v>457.007873824783</v>
+        <v>457.0078738247831</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.4976608892573</v>
+        <v>305.4976608892574</v>
       </c>
       <c r="R12" t="n">
         <v>148.5921140581476</v>
       </c>
       <c r="S12" t="n">
-        <v>44.45377246653394</v>
+        <v>44.45377246653395</v>
       </c>
       <c r="T12" t="n">
-        <v>9.646521109030626</v>
+        <v>9.646521109030628</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1574513782757992</v>
+        <v>0.1574513782757993</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>2.006429585459911</v>
       </c>
       <c r="H13" t="n">
-        <v>17.83898304163449</v>
+        <v>17.8389830416345</v>
       </c>
       <c r="I13" t="n">
-        <v>60.33880971546715</v>
+        <v>60.33880971546716</v>
       </c>
       <c r="J13" t="n">
         <v>141.8545716920157</v>
       </c>
       <c r="K13" t="n">
-        <v>233.1106372925241</v>
+        <v>233.1106372925242</v>
       </c>
       <c r="L13" t="n">
         <v>298.3013585510126</v>
       </c>
       <c r="M13" t="n">
-        <v>314.5169576553203</v>
+        <v>314.5169576553204</v>
       </c>
       <c r="N13" t="n">
-        <v>307.0384473822427</v>
+        <v>307.0384473822428</v>
       </c>
       <c r="O13" t="n">
-        <v>283.5997017702791</v>
+        <v>283.5997017702792</v>
       </c>
       <c r="P13" t="n">
-        <v>242.6685382268967</v>
+        <v>242.6685382268968</v>
       </c>
       <c r="Q13" t="n">
-        <v>168.0111173788294</v>
+        <v>168.0111173788295</v>
       </c>
       <c r="R13" t="n">
-        <v>90.21637026986105</v>
+        <v>90.21637026986107</v>
       </c>
       <c r="S13" t="n">
         <v>34.96659559387862</v>
       </c>
       <c r="T13" t="n">
-        <v>8.572926410601434</v>
+        <v>8.572926410601436</v>
       </c>
       <c r="U13" t="n">
         <v>0.1094416137523589</v>
@@ -32315,7 +32315,7 @@
         <v>226.1106759625994</v>
       </c>
       <c r="K18" t="n">
-        <v>386.4591595986734</v>
+        <v>304.0591679278177</v>
       </c>
       <c r="L18" t="n">
         <v>519.6420321028961</v>
@@ -32333,7 +32333,7 @@
         <v>457.0078738247831</v>
       </c>
       <c r="Q18" t="n">
-        <v>223.0976692184021</v>
+        <v>305.4976608892574</v>
       </c>
       <c r="R18" t="n">
         <v>148.5921140581476</v>
@@ -32789,7 +32789,7 @@
         <v>226.1106759625994</v>
       </c>
       <c r="K24" t="n">
-        <v>304.0591679278183</v>
+        <v>386.4591595986734</v>
       </c>
       <c r="L24" t="n">
         <v>519.6420321028961</v>
@@ -32807,10 +32807,10 @@
         <v>457.0078738247831</v>
       </c>
       <c r="Q24" t="n">
-        <v>305.4976608892574</v>
+        <v>226.0102793125859</v>
       </c>
       <c r="R24" t="n">
-        <v>148.5921140581476</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>44.45377246653395</v>
@@ -33026,13 +33026,13 @@
         <v>226.1106759625994</v>
       </c>
       <c r="K27" t="n">
-        <v>386.4591595986734</v>
+        <v>306.9717780220014</v>
       </c>
       <c r="L27" t="n">
         <v>519.6420321028961</v>
       </c>
       <c r="M27" t="n">
-        <v>526.9103599561893</v>
+        <v>606.3977415328612</v>
       </c>
       <c r="N27" t="n">
         <v>622.4472853584411</v>
@@ -33263,7 +33263,7 @@
         <v>226.1106759625994</v>
       </c>
       <c r="K30" t="n">
-        <v>304.0591679278176</v>
+        <v>386.4591595986734</v>
       </c>
       <c r="L30" t="n">
         <v>519.6420321028961</v>
@@ -33275,7 +33275,7 @@
         <v>622.4472853584411</v>
       </c>
       <c r="O30" t="n">
-        <v>569.417661155152</v>
+        <v>487.0176694842964</v>
       </c>
       <c r="P30" t="n">
         <v>457.0078738247831</v>
@@ -33500,7 +33500,7 @@
         <v>226.1106759625994</v>
       </c>
       <c r="K33" t="n">
-        <v>304.0591679278176</v>
+        <v>386.4591595986734</v>
       </c>
       <c r="L33" t="n">
         <v>519.6420321028961</v>
@@ -33518,7 +33518,7 @@
         <v>457.0078738247831</v>
       </c>
       <c r="Q33" t="n">
-        <v>305.4976608892574</v>
+        <v>223.0976692184026</v>
       </c>
       <c r="R33" t="n">
         <v>148.5921140581476</v>
@@ -33734,7 +33734,7 @@
         <v>82.39955463100161</v>
       </c>
       <c r="J36" t="n">
-        <v>146.6232943859274</v>
+        <v>226.1106759625994</v>
       </c>
       <c r="K36" t="n">
         <v>386.4591595986734</v>
@@ -33755,10 +33755,10 @@
         <v>457.0078738247831</v>
       </c>
       <c r="Q36" t="n">
-        <v>305.4976608892574</v>
+        <v>223.0976692184021</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>148.5921140581476</v>
       </c>
       <c r="S36" t="n">
         <v>44.45377246653395</v>
@@ -33974,7 +33974,7 @@
         <v>226.1106759625994</v>
       </c>
       <c r="K39" t="n">
-        <v>304.0591679278177</v>
+        <v>386.4591595986734</v>
       </c>
       <c r="L39" t="n">
         <v>519.6420321028961</v>
@@ -33992,10 +33992,10 @@
         <v>457.0078738247831</v>
       </c>
       <c r="Q39" t="n">
-        <v>305.4976608892574</v>
+        <v>226.0102793125859</v>
       </c>
       <c r="R39" t="n">
-        <v>148.5921140581476</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>44.45377246653395</v>
@@ -34226,13 +34226,13 @@
         <v>569.417661155152</v>
       </c>
       <c r="P42" t="n">
-        <v>377.5204922481115</v>
+        <v>457.0078738247831</v>
       </c>
       <c r="Q42" t="n">
-        <v>305.4976608892574</v>
+        <v>223.0976692184021</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>148.5921140581476</v>
       </c>
       <c r="S42" t="n">
         <v>44.45377246653395</v>
@@ -34372,7 +34372,7 @@
         <v>568.9811753410039</v>
       </c>
       <c r="L44" t="n">
-        <v>705.8714607676698</v>
+        <v>705.8714607676702</v>
       </c>
       <c r="M44" t="n">
         <v>785.4180069738198</v>
@@ -34781,13 +34781,13 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>74.40039143232849</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>153.4895779655505</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>238.3094620181792</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.5641001835207</v>
+        <v>105.5641001835206</v>
       </c>
       <c r="K8" t="n">
-        <v>209.4642500364019</v>
+        <v>209.4642500364018</v>
       </c>
       <c r="L8" t="n">
-        <v>297.1334311933552</v>
+        <v>297.1334311933551</v>
       </c>
       <c r="M8" t="n">
-        <v>362.6075244371538</v>
+        <v>362.6075244371536</v>
       </c>
       <c r="N8" t="n">
-        <v>373.1353057809139</v>
+        <v>373.1353057809137</v>
       </c>
       <c r="O8" t="n">
-        <v>338.8711275213536</v>
+        <v>338.8711275213535</v>
       </c>
       <c r="P8" t="n">
-        <v>254.3691714617279</v>
+        <v>254.3691714617278</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.3613143070478</v>
+        <v>142.3613143070477</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.4598901399685</v>
+        <v>169.9563640040442</v>
       </c>
       <c r="K9" t="n">
         <v>153.9171008518204</v>
       </c>
       <c r="L9" t="n">
-        <v>253.7509822565495</v>
+        <v>253.7509822565494</v>
       </c>
       <c r="M9" t="n">
-        <v>315.6678197259807</v>
+        <v>315.6678197259806</v>
       </c>
       <c r="N9" t="n">
-        <v>338.5767943987976</v>
+        <v>338.5767943987975</v>
       </c>
       <c r="O9" t="n">
-        <v>287.2873829546036</v>
+        <v>339.860141701892</v>
       </c>
       <c r="P9" t="n">
-        <v>526.1916231306786</v>
+        <v>211.0451027834641</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.65463146307607</v>
+        <v>300.7319191989251</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.73436826114309</v>
+        <v>13.73436826114306</v>
       </c>
       <c r="K10" t="n">
-        <v>153.7181059969906</v>
+        <v>153.7181059969905</v>
       </c>
       <c r="L10" t="n">
-        <v>252.7935600643281</v>
+        <v>252.793560064328</v>
       </c>
       <c r="M10" t="n">
-        <v>277.029428547115</v>
+        <v>277.0294285471149</v>
       </c>
       <c r="N10" t="n">
         <v>275.9317994647083</v>
@@ -35346,10 +35346,10 @@
         <v>238.6896013843086</v>
       </c>
       <c r="P10" t="n">
-        <v>180.4819240094559</v>
+        <v>180.4819240094558</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.67847032784297</v>
+        <v>40.67847032784294</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>198.5935796127241</v>
+        <v>198.5935796127242</v>
       </c>
       <c r="K11" t="n">
-        <v>348.8913242960232</v>
+        <v>348.8913242960234</v>
       </c>
       <c r="L11" t="n">
-        <v>470.1050457976824</v>
+        <v>470.1050457976825</v>
       </c>
       <c r="M11" t="n">
-        <v>555.071773746547</v>
+        <v>555.0717737465471</v>
       </c>
       <c r="N11" t="n">
-        <v>568.7138278593106</v>
+        <v>568.7138278593109</v>
       </c>
       <c r="O11" t="n">
-        <v>523.5503799660399</v>
+        <v>523.5503799660402</v>
       </c>
       <c r="P11" t="n">
-        <v>411.9886407177551</v>
+        <v>411.9886407177552</v>
       </c>
       <c r="Q11" t="n">
-        <v>260.7269714944631</v>
+        <v>260.7269714944632</v>
       </c>
       <c r="R11" t="n">
-        <v>65.39095663288168</v>
+        <v>65.39095663288174</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>99.27304929593268</v>
+        <v>99.27304929593274</v>
       </c>
       <c r="K12" t="n">
-        <v>248.6177206243142</v>
+        <v>166.2177289534587</v>
       </c>
       <c r="L12" t="n">
-        <v>298.6876606521668</v>
+        <v>381.0876523230219</v>
       </c>
       <c r="M12" t="n">
-        <v>464.2637076108428</v>
+        <v>464.2637076108429</v>
       </c>
       <c r="N12" t="n">
-        <v>491.1055732751078</v>
+        <v>491.1055732751079</v>
       </c>
       <c r="O12" t="n">
-        <v>426.8214167107075</v>
+        <v>426.8214167107076</v>
       </c>
       <c r="P12" t="n">
-        <v>323.0334664104528</v>
+        <v>323.0334664104529</v>
       </c>
       <c r="Q12" t="n">
         <v>165.5158868032358</v>
       </c>
       <c r="R12" t="n">
-        <v>2.912610094183663</v>
+        <v>2.912610094183691</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.49539157534289</v>
+        <v>48.49539157534292</v>
       </c>
       <c r="K13" t="n">
         <v>210.8411454666413</v>
@@ -35574,19 +35574,19 @@
         <v>325.8913838113288</v>
       </c>
       <c r="M13" t="n">
-        <v>354.1008346171609</v>
+        <v>354.100834617161</v>
       </c>
       <c r="N13" t="n">
         <v>351.1706197614714</v>
       </c>
       <c r="O13" t="n">
-        <v>308.1848296843188</v>
+        <v>308.1848296843189</v>
       </c>
       <c r="P13" t="n">
-        <v>239.9470974917902</v>
+        <v>239.9470974917903</v>
       </c>
       <c r="Q13" t="n">
-        <v>81.84907412713504</v>
+        <v>81.8490741271351</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>198.5935796127242</v>
       </c>
       <c r="K17" t="n">
-        <v>348.8913242960238</v>
+        <v>348.8913242960234</v>
       </c>
       <c r="L17" t="n">
         <v>470.1050457976825</v>
@@ -35963,7 +35963,7 @@
         <v>99.27304929593274</v>
       </c>
       <c r="K18" t="n">
-        <v>248.6177206243144</v>
+        <v>166.2177289534587</v>
       </c>
       <c r="L18" t="n">
         <v>381.0876523230219</v>
@@ -35981,7 +35981,7 @@
         <v>323.0334664104529</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.11589513238061</v>
+        <v>165.5158868032358</v>
       </c>
       <c r="R18" t="n">
         <v>2.912610094183691</v>
@@ -36130,13 +36130,13 @@
         <v>555.0717737465471</v>
       </c>
       <c r="N20" t="n">
-        <v>568.7138278593109</v>
+        <v>568.7138278593112</v>
       </c>
       <c r="O20" t="n">
         <v>523.5503799660402</v>
       </c>
       <c r="P20" t="n">
-        <v>411.9886407177555</v>
+        <v>411.9886407177552</v>
       </c>
       <c r="Q20" t="n">
         <v>260.7269714944632</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>367.6901947847979</v>
+        <v>198.5935796127242</v>
       </c>
       <c r="K23" t="n">
-        <v>422.8281779798209</v>
+        <v>348.8913242960234</v>
       </c>
       <c r="L23" t="n">
-        <v>887.766260348133</v>
+        <v>470.1050457976825</v>
       </c>
       <c r="M23" t="n">
-        <v>555.0717737465471</v>
+        <v>1004.58530723938</v>
       </c>
       <c r="N23" t="n">
-        <v>568.7138278593109</v>
+        <v>992.2099684327051</v>
       </c>
       <c r="O23" t="n">
         <v>904.3505612287855</v>
@@ -36376,7 +36376,7 @@
         <v>411.9886407177552</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0419621543679</v>
+        <v>260.7269714944632</v>
       </c>
       <c r="R23" t="n">
         <v>131.1073765058642</v>
@@ -36437,7 +36437,7 @@
         <v>99.27304929593274</v>
       </c>
       <c r="K24" t="n">
-        <v>166.2177289534593</v>
+        <v>248.6177206243144</v>
       </c>
       <c r="L24" t="n">
         <v>381.0876523230219</v>
@@ -36455,10 +36455,10 @@
         <v>323.0334664104529</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.5158868032358</v>
+        <v>86.02850522656441</v>
       </c>
       <c r="R24" t="n">
-        <v>2.912610094183691</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>367.6901947847979</v>
       </c>
       <c r="K26" t="n">
-        <v>348.8913242960234</v>
+        <v>673.0367368671881</v>
       </c>
       <c r="L26" t="n">
-        <v>887.766260348133</v>
+        <v>470.1050457976825</v>
       </c>
       <c r="M26" t="n">
-        <v>1004.58530723938</v>
+        <v>722.5244294096304</v>
       </c>
       <c r="N26" t="n">
-        <v>639.6537491860042</v>
+        <v>568.7138278593109</v>
       </c>
       <c r="O26" t="n">
-        <v>523.5503799660402</v>
+        <v>904.3505612287855</v>
       </c>
       <c r="P26" t="n">
         <v>411.9886407177552</v>
@@ -36616,7 +36616,7 @@
         <v>473.0419621543679</v>
       </c>
       <c r="R26" t="n">
-        <v>65.39095663288174</v>
+        <v>131.1073765058642</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>99.27304929593274</v>
       </c>
       <c r="K27" t="n">
-        <v>248.6177206243144</v>
+        <v>169.1303390476424</v>
       </c>
       <c r="L27" t="n">
         <v>381.0876523230219</v>
       </c>
       <c r="M27" t="n">
-        <v>384.776326034171</v>
+        <v>464.2637076108429</v>
       </c>
       <c r="N27" t="n">
         <v>491.1055732751079</v>
@@ -36832,16 +36832,16 @@
         <v>198.5935796127242</v>
       </c>
       <c r="K29" t="n">
-        <v>432.6092792727973</v>
+        <v>354.7262503189673</v>
       </c>
       <c r="L29" t="n">
         <v>887.766260348133</v>
       </c>
       <c r="M29" t="n">
-        <v>555.0717737465471</v>
+        <v>1004.58530723938</v>
       </c>
       <c r="N29" t="n">
-        <v>1006.060752271295</v>
+        <v>568.7138278593109</v>
       </c>
       <c r="O29" t="n">
         <v>904.3505612287855</v>
@@ -36853,7 +36853,7 @@
         <v>260.7269714944632</v>
       </c>
       <c r="R29" t="n">
-        <v>65.39095663288174</v>
+        <v>131.1073765058642</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>99.27304929593274</v>
       </c>
       <c r="K30" t="n">
-        <v>166.2177289534586</v>
+        <v>248.6177206243144</v>
       </c>
       <c r="L30" t="n">
         <v>381.0876523230219</v>
@@ -36923,7 +36923,7 @@
         <v>491.1055732751079</v>
       </c>
       <c r="O30" t="n">
-        <v>426.8214167107076</v>
+        <v>344.421425039852</v>
       </c>
       <c r="P30" t="n">
         <v>323.0334664104529</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>198.5935796127242</v>
+        <v>367.6901947847979</v>
       </c>
       <c r="K32" t="n">
-        <v>673.0367368671881</v>
+        <v>348.8913242960234</v>
       </c>
       <c r="L32" t="n">
-        <v>470.1050457976825</v>
+        <v>887.766260348133</v>
       </c>
       <c r="M32" t="n">
-        <v>666.5891108296249</v>
+        <v>555.0717737465471</v>
       </c>
       <c r="N32" t="n">
-        <v>1006.060752271295</v>
+        <v>568.7138278593109</v>
       </c>
       <c r="O32" t="n">
         <v>904.3505612287855</v>
       </c>
       <c r="P32" t="n">
-        <v>411.9886407177552</v>
+        <v>698.2404850614582</v>
       </c>
       <c r="Q32" t="n">
         <v>260.7269714944632</v>
@@ -37148,7 +37148,7 @@
         <v>99.27304929593274</v>
       </c>
       <c r="K33" t="n">
-        <v>166.2177289534586</v>
+        <v>248.6177206243144</v>
       </c>
       <c r="L33" t="n">
         <v>381.0876523230219</v>
@@ -37166,7 +37166,7 @@
         <v>323.0334664104529</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.5158868032358</v>
+        <v>83.11589513238108</v>
       </c>
       <c r="R33" t="n">
         <v>2.912610094183691</v>
@@ -37306,7 +37306,7 @@
         <v>198.5935796127242</v>
       </c>
       <c r="K35" t="n">
-        <v>348.8913242960247</v>
+        <v>348.8913242960234</v>
       </c>
       <c r="L35" t="n">
         <v>470.1050457976825</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>19.7856677192607</v>
+        <v>99.27304929593274</v>
       </c>
       <c r="K36" t="n">
         <v>248.6177206243144</v>
@@ -37403,10 +37403,10 @@
         <v>323.0334664104529</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.5158868032358</v>
+        <v>83.11589513238061</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>2.912610094183691</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>198.5935796127242</v>
       </c>
       <c r="K38" t="n">
-        <v>348.8913242960234</v>
+        <v>348.8913242960238</v>
       </c>
       <c r="L38" t="n">
         <v>470.1050457976825</v>
@@ -37561,7 +37561,7 @@
         <v>411.9886407177552</v>
       </c>
       <c r="Q38" t="n">
-        <v>260.7269714944645</v>
+        <v>260.7269714944632</v>
       </c>
       <c r="R38" t="n">
         <v>65.39095663288174</v>
@@ -37622,7 +37622,7 @@
         <v>99.27304929593274</v>
       </c>
       <c r="K39" t="n">
-        <v>166.2177289534587</v>
+        <v>248.6177206243144</v>
       </c>
       <c r="L39" t="n">
         <v>381.0876523230219</v>
@@ -37640,10 +37640,10 @@
         <v>323.0334664104529</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.5158868032358</v>
+        <v>86.02850522656441</v>
       </c>
       <c r="R39" t="n">
-        <v>2.912610094183691</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>260.7269714944632</v>
       </c>
       <c r="R41" t="n">
-        <v>65.39095663288174</v>
+        <v>65.39095663288208</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>426.8214167107076</v>
       </c>
       <c r="P42" t="n">
-        <v>243.5460848337813</v>
+        <v>323.0334664104529</v>
       </c>
       <c r="Q42" t="n">
-        <v>165.5158868032358</v>
+        <v>83.11589513238061</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2.912610094183691</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>348.8913242960234</v>
       </c>
       <c r="L44" t="n">
-        <v>470.1050457976825</v>
+        <v>470.105045797683</v>
       </c>
       <c r="M44" t="n">
         <v>555.0717737465471</v>
